--- a/datapandas/ABS2021AgeBySex.xlsx
+++ b/datapandas/ABS2021AgeBySex.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TAS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="QLD" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SA" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="WA" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="OTH" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ACT" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="NSW" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="VIC" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="NT" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="NSW" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="VIC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="QLD" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="WA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TAS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="NT" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ACT" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OTH" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +463,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2819</v>
+        <v>47069</v>
       </c>
       <c r="C2" t="n">
-        <v>2670</v>
+        <v>44443</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2886</v>
+        <v>47785</v>
       </c>
       <c r="C3" t="n">
-        <v>2760</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +485,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2933</v>
+        <v>48413</v>
       </c>
       <c r="C4" t="n">
-        <v>2730</v>
+        <v>45172</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2911</v>
+        <v>48218</v>
       </c>
       <c r="C5" t="n">
-        <v>2715</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2973</v>
+        <v>49228</v>
       </c>
       <c r="C6" t="n">
-        <v>2878</v>
+        <v>46860</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3189</v>
+        <v>50931</v>
       </c>
       <c r="C7" t="n">
-        <v>2950</v>
+        <v>48209</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +529,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3121</v>
+        <v>50695</v>
       </c>
       <c r="C8" t="n">
-        <v>2979</v>
+        <v>47730</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3176</v>
+        <v>51130</v>
       </c>
       <c r="C9" t="n">
-        <v>3115</v>
+        <v>48732</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +551,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3221</v>
+        <v>52291</v>
       </c>
       <c r="C10" t="n">
-        <v>3122</v>
+        <v>49107</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +562,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3170</v>
+        <v>52384</v>
       </c>
       <c r="C11" t="n">
-        <v>3100</v>
+        <v>49606</v>
       </c>
     </row>
     <row r="12">
@@ -573,10 +573,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3391</v>
+        <v>51683</v>
       </c>
       <c r="C12" t="n">
-        <v>3174</v>
+        <v>48733</v>
       </c>
     </row>
     <row r="13">
@@ -584,10 +584,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3338</v>
+        <v>52031</v>
       </c>
       <c r="C13" t="n">
-        <v>3084</v>
+        <v>49435</v>
       </c>
     </row>
     <row r="14">
@@ -595,10 +595,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3471</v>
+        <v>51390</v>
       </c>
       <c r="C14" t="n">
-        <v>3346</v>
+        <v>48683</v>
       </c>
     </row>
     <row r="15">
@@ -606,10 +606,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3441</v>
+        <v>51167</v>
       </c>
       <c r="C15" t="n">
-        <v>3240</v>
+        <v>48761</v>
       </c>
     </row>
     <row r="16">
@@ -617,10 +617,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3480</v>
+        <v>51171</v>
       </c>
       <c r="C16" t="n">
-        <v>3246</v>
+        <v>48082</v>
       </c>
     </row>
     <row r="17">
@@ -628,10 +628,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3356</v>
+        <v>49266</v>
       </c>
       <c r="C17" t="n">
-        <v>3127</v>
+        <v>46415</v>
       </c>
     </row>
     <row r="18">
@@ -639,10 +639,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3238</v>
+        <v>48078</v>
       </c>
       <c r="C18" t="n">
-        <v>3011</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="19">
@@ -650,10 +650,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3047</v>
+        <v>46821</v>
       </c>
       <c r="C19" t="n">
-        <v>2886</v>
+        <v>43797</v>
       </c>
     </row>
     <row r="20">
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2944</v>
+        <v>46225</v>
       </c>
       <c r="C20" t="n">
-        <v>2792</v>
+        <v>43497</v>
       </c>
     </row>
     <row r="21">
@@ -672,10 +672,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2936</v>
+        <v>45766</v>
       </c>
       <c r="C21" t="n">
-        <v>2721</v>
+        <v>43203</v>
       </c>
     </row>
     <row r="22">
@@ -683,10 +683,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3017</v>
+        <v>48789</v>
       </c>
       <c r="C22" t="n">
-        <v>2881</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="23">
@@ -694,10 +694,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3136</v>
+        <v>51023</v>
       </c>
       <c r="C23" t="n">
-        <v>2863</v>
+        <v>47724</v>
       </c>
     </row>
     <row r="24">
@@ -705,10 +705,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3096</v>
+        <v>50847</v>
       </c>
       <c r="C24" t="n">
-        <v>3125</v>
+        <v>48082</v>
       </c>
     </row>
     <row r="25">
@@ -716,10 +716,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3184</v>
+        <v>51272</v>
       </c>
       <c r="C25" t="n">
-        <v>3040</v>
+        <v>49214</v>
       </c>
     </row>
     <row r="26">
@@ -727,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3364</v>
+        <v>52878</v>
       </c>
       <c r="C26" t="n">
-        <v>3316</v>
+        <v>51031</v>
       </c>
     </row>
     <row r="27">
@@ -738,10 +738,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3585</v>
+        <v>53863</v>
       </c>
       <c r="C27" t="n">
-        <v>3545</v>
+        <v>52415</v>
       </c>
     </row>
     <row r="28">
@@ -749,10 +749,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4011</v>
+        <v>55473</v>
       </c>
       <c r="C28" t="n">
-        <v>3771</v>
+        <v>54677</v>
       </c>
     </row>
     <row r="29">
@@ -760,10 +760,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4071</v>
+        <v>55729</v>
       </c>
       <c r="C29" t="n">
-        <v>3918</v>
+        <v>55662</v>
       </c>
     </row>
     <row r="30">
@@ -771,10 +771,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3986</v>
+        <v>56436</v>
       </c>
       <c r="C30" t="n">
-        <v>3944</v>
+        <v>56836</v>
       </c>
     </row>
     <row r="31">
@@ -782,10 +782,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3928</v>
+        <v>56643</v>
       </c>
       <c r="C31" t="n">
-        <v>3993</v>
+        <v>58243</v>
       </c>
     </row>
     <row r="32">
@@ -793,10 +793,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3965</v>
+        <v>57664</v>
       </c>
       <c r="C32" t="n">
-        <v>4050</v>
+        <v>60243</v>
       </c>
     </row>
     <row r="33">
@@ -804,10 +804,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3927</v>
+        <v>58250</v>
       </c>
       <c r="C33" t="n">
-        <v>3950</v>
+        <v>60502</v>
       </c>
     </row>
     <row r="34">
@@ -815,10 +815,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3762</v>
+        <v>57560</v>
       </c>
       <c r="C34" t="n">
-        <v>3783</v>
+        <v>59998</v>
       </c>
     </row>
     <row r="35">
@@ -826,10 +826,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3564</v>
+        <v>56304</v>
       </c>
       <c r="C35" t="n">
-        <v>3738</v>
+        <v>59574</v>
       </c>
     </row>
     <row r="36">
@@ -837,10 +837,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3562</v>
+        <v>56268</v>
       </c>
       <c r="C36" t="n">
-        <v>3595</v>
+        <v>59703</v>
       </c>
     </row>
     <row r="37">
@@ -848,10 +848,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3526</v>
+        <v>57342</v>
       </c>
       <c r="C37" t="n">
-        <v>3649</v>
+        <v>59379</v>
       </c>
     </row>
     <row r="38">
@@ -859,10 +859,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3434</v>
+        <v>57330</v>
       </c>
       <c r="C38" t="n">
-        <v>3715</v>
+        <v>59415</v>
       </c>
     </row>
     <row r="39">
@@ -870,10 +870,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3333</v>
+        <v>57029</v>
       </c>
       <c r="C39" t="n">
-        <v>3589</v>
+        <v>59274</v>
       </c>
     </row>
     <row r="40">
@@ -881,10 +881,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3277</v>
+        <v>57442</v>
       </c>
       <c r="C40" t="n">
-        <v>3411</v>
+        <v>59388</v>
       </c>
     </row>
     <row r="41">
@@ -892,10 +892,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3290</v>
+        <v>56181</v>
       </c>
       <c r="C41" t="n">
-        <v>3485</v>
+        <v>57394</v>
       </c>
     </row>
     <row r="42">
@@ -903,10 +903,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3089</v>
+        <v>55449</v>
       </c>
       <c r="C42" t="n">
-        <v>3444</v>
+        <v>56194</v>
       </c>
     </row>
     <row r="43">
@@ -914,10 +914,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2992</v>
+        <v>52879</v>
       </c>
       <c r="C43" t="n">
-        <v>3239</v>
+        <v>53205</v>
       </c>
     </row>
     <row r="44">
@@ -925,10 +925,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3078</v>
+        <v>51375</v>
       </c>
       <c r="C44" t="n">
-        <v>3231</v>
+        <v>52683</v>
       </c>
     </row>
     <row r="45">
@@ -936,10 +936,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2958</v>
+        <v>49725</v>
       </c>
       <c r="C45" t="n">
-        <v>3205</v>
+        <v>51297</v>
       </c>
     </row>
     <row r="46">
@@ -947,10 +947,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2917</v>
+        <v>49427</v>
       </c>
       <c r="C46" t="n">
-        <v>3101</v>
+        <v>50746</v>
       </c>
     </row>
     <row r="47">
@@ -958,10 +958,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3082</v>
+        <v>49240</v>
       </c>
       <c r="C47" t="n">
-        <v>3201</v>
+        <v>50715</v>
       </c>
     </row>
     <row r="48">
@@ -969,10 +969,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3093</v>
+        <v>49572</v>
       </c>
       <c r="C48" t="n">
-        <v>3276</v>
+        <v>50995</v>
       </c>
     </row>
     <row r="49">
@@ -980,10 +980,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3208</v>
+        <v>50340</v>
       </c>
       <c r="C49" t="n">
-        <v>3332</v>
+        <v>52304</v>
       </c>
     </row>
     <row r="50">
@@ -991,10 +991,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3232</v>
+        <v>51259</v>
       </c>
       <c r="C50" t="n">
-        <v>3587</v>
+        <v>53602</v>
       </c>
     </row>
     <row r="51">
@@ -1002,10 +1002,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3481</v>
+        <v>53184</v>
       </c>
       <c r="C51" t="n">
-        <v>3734</v>
+        <v>55705</v>
       </c>
     </row>
     <row r="52">
@@ -1013,10 +1013,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3625</v>
+        <v>53467</v>
       </c>
       <c r="C52" t="n">
-        <v>3993</v>
+        <v>56529</v>
       </c>
     </row>
     <row r="53">
@@ -1024,10 +1024,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3484</v>
+        <v>49130</v>
       </c>
       <c r="C53" t="n">
-        <v>3722</v>
+        <v>51538</v>
       </c>
     </row>
     <row r="54">
@@ -1035,10 +1035,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3512</v>
+        <v>48590</v>
       </c>
       <c r="C54" t="n">
-        <v>3763</v>
+        <v>51316</v>
       </c>
     </row>
     <row r="55">
@@ -1046,10 +1046,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3378</v>
+        <v>46355</v>
       </c>
       <c r="C55" t="n">
-        <v>3621</v>
+        <v>49086</v>
       </c>
     </row>
     <row r="56">
@@ -1057,10 +1057,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3239</v>
+        <v>46032</v>
       </c>
       <c r="C56" t="n">
-        <v>3639</v>
+        <v>47988</v>
       </c>
     </row>
     <row r="57">
@@ -1068,10 +1068,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3163</v>
+        <v>46275</v>
       </c>
       <c r="C57" t="n">
-        <v>3508</v>
+        <v>47568</v>
       </c>
     </row>
     <row r="58">
@@ -1079,10 +1079,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3400</v>
+        <v>46774</v>
       </c>
       <c r="C58" t="n">
-        <v>3650</v>
+        <v>48652</v>
       </c>
     </row>
     <row r="59">
@@ -1090,10 +1090,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3683</v>
+        <v>48499</v>
       </c>
       <c r="C59" t="n">
-        <v>3931</v>
+        <v>50538</v>
       </c>
     </row>
     <row r="60">
@@ -1101,10 +1101,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3702</v>
+        <v>49468</v>
       </c>
       <c r="C60" t="n">
-        <v>3945</v>
+        <v>51893</v>
       </c>
     </row>
     <row r="61">
@@ -1112,10 +1112,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3935</v>
+        <v>49327</v>
       </c>
       <c r="C61" t="n">
-        <v>4070</v>
+        <v>51151</v>
       </c>
     </row>
     <row r="62">
@@ -1123,10 +1123,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3860</v>
+        <v>48391</v>
       </c>
       <c r="C62" t="n">
-        <v>4194</v>
+        <v>51116</v>
       </c>
     </row>
     <row r="63">
@@ -1134,10 +1134,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3722</v>
+        <v>46380</v>
       </c>
       <c r="C63" t="n">
-        <v>4057</v>
+        <v>49385</v>
       </c>
     </row>
     <row r="64">
@@ -1145,10 +1145,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3710</v>
+        <v>45470</v>
       </c>
       <c r="C64" t="n">
-        <v>3950</v>
+        <v>48118</v>
       </c>
     </row>
     <row r="65">
@@ -1156,10 +1156,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3692</v>
+        <v>44679</v>
       </c>
       <c r="C65" t="n">
-        <v>3800</v>
+        <v>48075</v>
       </c>
     </row>
     <row r="66">
@@ -1167,10 +1167,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3503</v>
+        <v>43410</v>
       </c>
       <c r="C66" t="n">
-        <v>3905</v>
+        <v>46599</v>
       </c>
     </row>
     <row r="67">
@@ -1178,10 +1178,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3646</v>
+        <v>42399</v>
       </c>
       <c r="C67" t="n">
-        <v>3713</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="68">
@@ -1189,10 +1189,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3455</v>
+        <v>41070</v>
       </c>
       <c r="C68" t="n">
-        <v>3628</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="69">
@@ -1200,10 +1200,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3228</v>
+        <v>39922</v>
       </c>
       <c r="C69" t="n">
-        <v>3679</v>
+        <v>43027</v>
       </c>
     </row>
     <row r="70">
@@ -1211,10 +1211,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3409</v>
+        <v>39532</v>
       </c>
       <c r="C70" t="n">
-        <v>3522</v>
+        <v>42452</v>
       </c>
     </row>
     <row r="71">
@@ -1222,10 +1222,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3379</v>
+        <v>37547</v>
       </c>
       <c r="C71" t="n">
-        <v>3477</v>
+        <v>40632</v>
       </c>
     </row>
     <row r="72">
@@ -1233,10 +1233,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3206</v>
+        <v>37355</v>
       </c>
       <c r="C72" t="n">
-        <v>3390</v>
+        <v>39843</v>
       </c>
     </row>
     <row r="73">
@@ -1244,10 +1244,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3163</v>
+        <v>36511</v>
       </c>
       <c r="C73" t="n">
-        <v>3357</v>
+        <v>39008</v>
       </c>
     </row>
     <row r="74">
@@ -1255,10 +1255,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2948</v>
+        <v>35147</v>
       </c>
       <c r="C74" t="n">
-        <v>3163</v>
+        <v>37366</v>
       </c>
     </row>
     <row r="75">
@@ -1266,10 +1266,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2979</v>
+        <v>35356</v>
       </c>
       <c r="C75" t="n">
-        <v>3110</v>
+        <v>37100</v>
       </c>
     </row>
     <row r="76">
@@ -1277,10 +1277,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3236</v>
+        <v>36179</v>
       </c>
       <c r="C76" t="n">
-        <v>3292</v>
+        <v>38381</v>
       </c>
     </row>
     <row r="77">
@@ -1288,10 +1288,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2418</v>
+        <v>29770</v>
       </c>
       <c r="C77" t="n">
-        <v>2671</v>
+        <v>31784</v>
       </c>
     </row>
     <row r="78">
@@ -1299,10 +1299,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2228</v>
+        <v>27795</v>
       </c>
       <c r="C78" t="n">
-        <v>2487</v>
+        <v>30299</v>
       </c>
     </row>
     <row r="79">
@@ -1310,10 +1310,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2200</v>
+        <v>26260</v>
       </c>
       <c r="C79" t="n">
-        <v>2373</v>
+        <v>28578</v>
       </c>
     </row>
     <row r="80">
@@ -1321,10 +1321,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1870</v>
+        <v>22582</v>
       </c>
       <c r="C80" t="n">
-        <v>2013</v>
+        <v>25294</v>
       </c>
     </row>
     <row r="81">
@@ -1332,10 +1332,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1816</v>
+        <v>21657</v>
       </c>
       <c r="C81" t="n">
-        <v>1951</v>
+        <v>24090</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28736</v>
+        <v>37231</v>
       </c>
       <c r="C2" t="n">
-        <v>27147</v>
+        <v>35848</v>
       </c>
     </row>
     <row r="3">
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29803</v>
+        <v>38213</v>
       </c>
       <c r="C3" t="n">
-        <v>28022</v>
+        <v>36083</v>
       </c>
     </row>
     <row r="4">
@@ -1401,10 +1401,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30238</v>
+        <v>38211</v>
       </c>
       <c r="C4" t="n">
-        <v>28307</v>
+        <v>36662</v>
       </c>
     </row>
     <row r="5">
@@ -1412,10 +1412,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30479</v>
+        <v>39161</v>
       </c>
       <c r="C5" t="n">
-        <v>28826</v>
+        <v>36800</v>
       </c>
     </row>
     <row r="6">
@@ -1423,10 +1423,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31446</v>
+        <v>39870</v>
       </c>
       <c r="C6" t="n">
-        <v>29449</v>
+        <v>37831</v>
       </c>
     </row>
     <row r="7">
@@ -1434,10 +1434,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32741</v>
+        <v>41504</v>
       </c>
       <c r="C7" t="n">
-        <v>31393</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="8">
@@ -1445,10 +1445,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33272</v>
+        <v>40966</v>
       </c>
       <c r="C8" t="n">
-        <v>31285</v>
+        <v>38925</v>
       </c>
     </row>
     <row r="9">
@@ -1456,10 +1456,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33997</v>
+        <v>41368</v>
       </c>
       <c r="C9" t="n">
-        <v>32215</v>
+        <v>38922</v>
       </c>
     </row>
     <row r="10">
@@ -1467,10 +1467,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34523</v>
+        <v>41819</v>
       </c>
       <c r="C10" t="n">
-        <v>32457</v>
+        <v>39472</v>
       </c>
     </row>
     <row r="11">
@@ -1478,10 +1478,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34478</v>
+        <v>41092</v>
       </c>
       <c r="C11" t="n">
-        <v>32946</v>
+        <v>39004</v>
       </c>
     </row>
     <row r="12">
@@ -1489,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34454</v>
+        <v>40121</v>
       </c>
       <c r="C12" t="n">
-        <v>33081</v>
+        <v>37897</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35173</v>
+        <v>40503</v>
       </c>
       <c r="C13" t="n">
-        <v>33643</v>
+        <v>38880</v>
       </c>
     </row>
     <row r="14">
@@ -1511,10 +1511,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>35548</v>
+        <v>40180</v>
       </c>
       <c r="C14" t="n">
-        <v>33481</v>
+        <v>37738</v>
       </c>
     </row>
     <row r="15">
@@ -1522,10 +1522,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>35650</v>
+        <v>40163</v>
       </c>
       <c r="C15" t="n">
-        <v>33292</v>
+        <v>37784</v>
       </c>
     </row>
     <row r="16">
@@ -1533,10 +1533,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>35495</v>
+        <v>40281</v>
       </c>
       <c r="C16" t="n">
-        <v>32736</v>
+        <v>37841</v>
       </c>
     </row>
     <row r="17">
@@ -1544,10 +1544,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34153</v>
+        <v>38559</v>
       </c>
       <c r="C17" t="n">
-        <v>32117</v>
+        <v>36572</v>
       </c>
     </row>
     <row r="18">
@@ -1555,10 +1555,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33040</v>
+        <v>37290</v>
       </c>
       <c r="C18" t="n">
-        <v>30939</v>
+        <v>34963</v>
       </c>
     </row>
     <row r="19">
@@ -1566,10 +1566,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>31746</v>
+        <v>36998</v>
       </c>
       <c r="C19" t="n">
-        <v>30279</v>
+        <v>34938</v>
       </c>
     </row>
     <row r="20">
@@ -1577,10 +1577,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30532</v>
+        <v>36686</v>
       </c>
       <c r="C20" t="n">
-        <v>29511</v>
+        <v>34815</v>
       </c>
     </row>
     <row r="21">
@@ -1588,10 +1588,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>31049</v>
+        <v>36984</v>
       </c>
       <c r="C21" t="n">
-        <v>30141</v>
+        <v>35402</v>
       </c>
     </row>
     <row r="22">
@@ -1599,10 +1599,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32238</v>
+        <v>39734</v>
       </c>
       <c r="C22" t="n">
-        <v>31443</v>
+        <v>37355</v>
       </c>
     </row>
     <row r="23">
@@ -1610,10 +1610,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32573</v>
+        <v>41299</v>
       </c>
       <c r="C23" t="n">
-        <v>31721</v>
+        <v>39587</v>
       </c>
     </row>
     <row r="24">
@@ -1621,10 +1621,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32208</v>
+        <v>41702</v>
       </c>
       <c r="C24" t="n">
-        <v>31953</v>
+        <v>39649</v>
       </c>
     </row>
     <row r="25">
@@ -1632,10 +1632,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>32787</v>
+        <v>42677</v>
       </c>
       <c r="C25" t="n">
-        <v>32564</v>
+        <v>40456</v>
       </c>
     </row>
     <row r="26">
@@ -1643,10 +1643,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>33084</v>
+        <v>45123</v>
       </c>
       <c r="C26" t="n">
-        <v>33170</v>
+        <v>42757</v>
       </c>
     </row>
     <row r="27">
@@ -1654,10 +1654,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>33944</v>
+        <v>47108</v>
       </c>
       <c r="C27" t="n">
-        <v>33762</v>
+        <v>44374</v>
       </c>
     </row>
     <row r="28">
@@ -1665,10 +1665,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34528</v>
+        <v>48564</v>
       </c>
       <c r="C28" t="n">
-        <v>34946</v>
+        <v>46457</v>
       </c>
     </row>
     <row r="29">
@@ -1676,10 +1676,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>34687</v>
+        <v>48385</v>
       </c>
       <c r="C29" t="n">
-        <v>34986</v>
+        <v>47257</v>
       </c>
     </row>
     <row r="30">
@@ -1687,10 +1687,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34583</v>
+        <v>47893</v>
       </c>
       <c r="C30" t="n">
-        <v>35482</v>
+        <v>48528</v>
       </c>
     </row>
     <row r="31">
@@ -1698,10 +1698,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34314</v>
+        <v>47538</v>
       </c>
       <c r="C31" t="n">
-        <v>36465</v>
+        <v>49427</v>
       </c>
     </row>
     <row r="32">
@@ -1709,10 +1709,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>34951</v>
+        <v>48813</v>
       </c>
       <c r="C32" t="n">
-        <v>36886</v>
+        <v>50935</v>
       </c>
     </row>
     <row r="33">
@@ -1720,10 +1720,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>35193</v>
+        <v>48879</v>
       </c>
       <c r="C33" t="n">
-        <v>36715</v>
+        <v>52093</v>
       </c>
     </row>
     <row r="34">
@@ -1731,10 +1731,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>34047</v>
+        <v>48483</v>
       </c>
       <c r="C34" t="n">
-        <v>36335</v>
+        <v>51273</v>
       </c>
     </row>
     <row r="35">
@@ -1742,10 +1742,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33917</v>
+        <v>48537</v>
       </c>
       <c r="C35" t="n">
-        <v>36065</v>
+        <v>51465</v>
       </c>
     </row>
     <row r="36">
@@ -1753,10 +1753,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>33915</v>
+        <v>48800</v>
       </c>
       <c r="C36" t="n">
-        <v>36008</v>
+        <v>50684</v>
       </c>
     </row>
     <row r="37">
@@ -1764,10 +1764,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34658</v>
+        <v>48780</v>
       </c>
       <c r="C37" t="n">
-        <v>36810</v>
+        <v>51260</v>
       </c>
     </row>
     <row r="38">
@@ -1775,10 +1775,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34406</v>
+        <v>48663</v>
       </c>
       <c r="C38" t="n">
-        <v>37022</v>
+        <v>51140</v>
       </c>
     </row>
     <row r="39">
@@ -1786,10 +1786,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34377</v>
+        <v>47957</v>
       </c>
       <c r="C39" t="n">
-        <v>36724</v>
+        <v>49686</v>
       </c>
     </row>
     <row r="40">
@@ -1797,10 +1797,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>35221</v>
+        <v>48259</v>
       </c>
       <c r="C40" t="n">
-        <v>37642</v>
+        <v>49543</v>
       </c>
     </row>
     <row r="41">
@@ -1808,10 +1808,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34476</v>
+        <v>46621</v>
       </c>
       <c r="C41" t="n">
-        <v>35785</v>
+        <v>48019</v>
       </c>
     </row>
     <row r="42">
@@ -1819,10 +1819,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34131</v>
+        <v>45618</v>
       </c>
       <c r="C42" t="n">
-        <v>35485</v>
+        <v>46430</v>
       </c>
     </row>
     <row r="43">
@@ -1830,10 +1830,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32481</v>
+        <v>43276</v>
       </c>
       <c r="C43" t="n">
-        <v>34180</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="44">
@@ -1841,10 +1841,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>32095</v>
+        <v>42124</v>
       </c>
       <c r="C44" t="n">
-        <v>33657</v>
+        <v>42919</v>
       </c>
     </row>
     <row r="45">
@@ -1852,10 +1852,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31171</v>
+        <v>41134</v>
       </c>
       <c r="C45" t="n">
-        <v>32962</v>
+        <v>41736</v>
       </c>
     </row>
     <row r="46">
@@ -1863,10 +1863,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31368</v>
+        <v>40273</v>
       </c>
       <c r="C46" t="n">
-        <v>33165</v>
+        <v>41277</v>
       </c>
     </row>
     <row r="47">
@@ -1874,10 +1874,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>31744</v>
+        <v>40144</v>
       </c>
       <c r="C47" t="n">
-        <v>33374</v>
+        <v>40888</v>
       </c>
     </row>
     <row r="48">
@@ -1885,10 +1885,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>32040</v>
+        <v>40130</v>
       </c>
       <c r="C48" t="n">
-        <v>33848</v>
+        <v>41895</v>
       </c>
     </row>
     <row r="49">
@@ -1896,10 +1896,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>33183</v>
+        <v>40279</v>
       </c>
       <c r="C49" t="n">
-        <v>34411</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="50">
@@ -1907,10 +1907,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34136</v>
+        <v>40700</v>
       </c>
       <c r="C50" t="n">
-        <v>35842</v>
+        <v>42750</v>
       </c>
     </row>
     <row r="51">
@@ -1918,10 +1918,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34865</v>
+        <v>42032</v>
       </c>
       <c r="C51" t="n">
-        <v>36848</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="52">
@@ -1929,10 +1929,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>35809</v>
+        <v>42781</v>
       </c>
       <c r="C52" t="n">
-        <v>37546</v>
+        <v>46336</v>
       </c>
     </row>
     <row r="53">
@@ -1940,10 +1940,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>33133</v>
+        <v>40445</v>
       </c>
       <c r="C53" t="n">
-        <v>34856</v>
+        <v>42756</v>
       </c>
     </row>
     <row r="54">
@@ -1951,10 +1951,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>32297</v>
+        <v>40080</v>
       </c>
       <c r="C54" t="n">
-        <v>34042</v>
+        <v>42660</v>
       </c>
     </row>
     <row r="55">
@@ -1962,10 +1962,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>30942</v>
+        <v>38648</v>
       </c>
       <c r="C55" t="n">
-        <v>32488</v>
+        <v>40516</v>
       </c>
     </row>
     <row r="56">
@@ -1973,10 +1973,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>30691</v>
+        <v>37073</v>
       </c>
       <c r="C56" t="n">
-        <v>32037</v>
+        <v>39056</v>
       </c>
     </row>
     <row r="57">
@@ -1984,10 +1984,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29916</v>
+        <v>36877</v>
       </c>
       <c r="C57" t="n">
-        <v>31476</v>
+        <v>38971</v>
       </c>
     </row>
     <row r="58">
@@ -1995,10 +1995,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30203</v>
+        <v>36930</v>
       </c>
       <c r="C58" t="n">
-        <v>31770</v>
+        <v>38938</v>
       </c>
     </row>
     <row r="59">
@@ -2006,10 +2006,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>31395</v>
+        <v>37286</v>
       </c>
       <c r="C59" t="n">
-        <v>32814</v>
+        <v>39757</v>
       </c>
     </row>
     <row r="60">
@@ -2017,10 +2017,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31349</v>
+        <v>38024</v>
       </c>
       <c r="C60" t="n">
-        <v>33298</v>
+        <v>40029</v>
       </c>
     </row>
     <row r="61">
@@ -2028,10 +2028,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>31127</v>
+        <v>37519</v>
       </c>
       <c r="C61" t="n">
-        <v>33021</v>
+        <v>39585</v>
       </c>
     </row>
     <row r="62">
@@ -2039,10 +2039,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>31083</v>
+        <v>37033</v>
       </c>
       <c r="C62" t="n">
-        <v>32807</v>
+        <v>39380</v>
       </c>
     </row>
     <row r="63">
@@ -2050,10 +2050,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29666</v>
+        <v>35397</v>
       </c>
       <c r="C63" t="n">
-        <v>31293</v>
+        <v>38319</v>
       </c>
     </row>
     <row r="64">
@@ -2061,10 +2061,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29028</v>
+        <v>35258</v>
       </c>
       <c r="C64" t="n">
-        <v>30607</v>
+        <v>37613</v>
       </c>
     </row>
     <row r="65">
@@ -2072,10 +2072,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27935</v>
+        <v>33920</v>
       </c>
       <c r="C65" t="n">
-        <v>30108</v>
+        <v>36737</v>
       </c>
     </row>
     <row r="66">
@@ -2083,10 +2083,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27445</v>
+        <v>32988</v>
       </c>
       <c r="C66" t="n">
-        <v>28942</v>
+        <v>35980</v>
       </c>
     </row>
     <row r="67">
@@ -2094,10 +2094,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26986</v>
+        <v>32873</v>
       </c>
       <c r="C67" t="n">
-        <v>28490</v>
+        <v>35196</v>
       </c>
     </row>
     <row r="68">
@@ -2105,10 +2105,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26206</v>
+        <v>31542</v>
       </c>
       <c r="C68" t="n">
-        <v>27829</v>
+        <v>34454</v>
       </c>
     </row>
     <row r="69">
@@ -2116,10 +2116,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25223</v>
+        <v>30211</v>
       </c>
       <c r="C69" t="n">
-        <v>27168</v>
+        <v>33230</v>
       </c>
     </row>
     <row r="70">
@@ -2127,10 +2127,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25295</v>
+        <v>29852</v>
       </c>
       <c r="C70" t="n">
-        <v>26559</v>
+        <v>32821</v>
       </c>
     </row>
     <row r="71">
@@ -2138,10 +2138,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>24901</v>
+        <v>28921</v>
       </c>
       <c r="C71" t="n">
-        <v>25864</v>
+        <v>31474</v>
       </c>
     </row>
     <row r="72">
@@ -2149,10 +2149,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>24214</v>
+        <v>28188</v>
       </c>
       <c r="C72" t="n">
-        <v>25305</v>
+        <v>31043</v>
       </c>
     </row>
     <row r="73">
@@ -2160,10 +2160,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23626</v>
+        <v>27472</v>
       </c>
       <c r="C73" t="n">
-        <v>25042</v>
+        <v>30404</v>
       </c>
     </row>
     <row r="74">
@@ -2171,10 +2171,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22950</v>
+        <v>26292</v>
       </c>
       <c r="C74" t="n">
-        <v>24064</v>
+        <v>29013</v>
       </c>
     </row>
     <row r="75">
@@ -2182,10 +2182,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22536</v>
+        <v>26327</v>
       </c>
       <c r="C75" t="n">
-        <v>23236</v>
+        <v>28921</v>
       </c>
     </row>
     <row r="76">
@@ -2193,10 +2193,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23480</v>
+        <v>27357</v>
       </c>
       <c r="C76" t="n">
-        <v>24508</v>
+        <v>29977</v>
       </c>
     </row>
     <row r="77">
@@ -2204,10 +2204,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19081</v>
+        <v>22577</v>
       </c>
       <c r="C77" t="n">
-        <v>19848</v>
+        <v>24373</v>
       </c>
     </row>
     <row r="78">
@@ -2215,10 +2215,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>18116</v>
+        <v>20631</v>
       </c>
       <c r="C78" t="n">
-        <v>19238</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="79">
@@ -2226,10 +2226,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16547</v>
+        <v>19199</v>
       </c>
       <c r="C79" t="n">
-        <v>17567</v>
+        <v>21751</v>
       </c>
     </row>
     <row r="80">
@@ -2237,10 +2237,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14079</v>
+        <v>16852</v>
       </c>
       <c r="C80" t="n">
-        <v>15361</v>
+        <v>19316</v>
       </c>
     </row>
     <row r="81">
@@ -2248,10 +2248,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13690</v>
+        <v>16647</v>
       </c>
       <c r="C81" t="n">
-        <v>14854</v>
+        <v>18959</v>
       </c>
     </row>
   </sheetData>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9461</v>
+        <v>28736</v>
       </c>
       <c r="C2" t="n">
-        <v>8972</v>
+        <v>27147</v>
       </c>
     </row>
     <row r="3">
@@ -2306,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9488</v>
+        <v>29803</v>
       </c>
       <c r="C3" t="n">
-        <v>9044</v>
+        <v>28022</v>
       </c>
     </row>
     <row r="4">
@@ -2317,10 +2317,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9557</v>
+        <v>30238</v>
       </c>
       <c r="C4" t="n">
-        <v>9156</v>
+        <v>28307</v>
       </c>
     </row>
     <row r="5">
@@ -2328,10 +2328,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9885</v>
+        <v>30479</v>
       </c>
       <c r="C5" t="n">
-        <v>9226</v>
+        <v>28826</v>
       </c>
     </row>
     <row r="6">
@@ -2339,10 +2339,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9967</v>
+        <v>31446</v>
       </c>
       <c r="C6" t="n">
-        <v>9468</v>
+        <v>29449</v>
       </c>
     </row>
     <row r="7">
@@ -2350,10 +2350,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10446</v>
+        <v>32741</v>
       </c>
       <c r="C7" t="n">
-        <v>9981</v>
+        <v>31393</v>
       </c>
     </row>
     <row r="8">
@@ -2361,10 +2361,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10420</v>
+        <v>33272</v>
       </c>
       <c r="C8" t="n">
-        <v>9867</v>
+        <v>31285</v>
       </c>
     </row>
     <row r="9">
@@ -2372,10 +2372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10713</v>
+        <v>33997</v>
       </c>
       <c r="C9" t="n">
-        <v>10072</v>
+        <v>32215</v>
       </c>
     </row>
     <row r="10">
@@ -2383,10 +2383,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10772</v>
+        <v>34523</v>
       </c>
       <c r="C10" t="n">
-        <v>10187</v>
+        <v>32457</v>
       </c>
     </row>
     <row r="11">
@@ -2394,10 +2394,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10950</v>
+        <v>34478</v>
       </c>
       <c r="C11" t="n">
-        <v>10350</v>
+        <v>32946</v>
       </c>
     </row>
     <row r="12">
@@ -2405,10 +2405,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10636</v>
+        <v>34454</v>
       </c>
       <c r="C12" t="n">
-        <v>10101</v>
+        <v>33081</v>
       </c>
     </row>
     <row r="13">
@@ -2416,10 +2416,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10992</v>
+        <v>35173</v>
       </c>
       <c r="C13" t="n">
-        <v>10131</v>
+        <v>33643</v>
       </c>
     </row>
     <row r="14">
@@ -2427,10 +2427,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10794</v>
+        <v>35548</v>
       </c>
       <c r="C14" t="n">
-        <v>10276</v>
+        <v>33481</v>
       </c>
     </row>
     <row r="15">
@@ -2438,10 +2438,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10761</v>
+        <v>35650</v>
       </c>
       <c r="C15" t="n">
-        <v>10428</v>
+        <v>33292</v>
       </c>
     </row>
     <row r="16">
@@ -2449,10 +2449,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10741</v>
+        <v>35495</v>
       </c>
       <c r="C16" t="n">
-        <v>10305</v>
+        <v>32736</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10578</v>
+        <v>34153</v>
       </c>
       <c r="C17" t="n">
-        <v>9802</v>
+        <v>32117</v>
       </c>
     </row>
     <row r="18">
@@ -2471,10 +2471,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10106</v>
+        <v>33040</v>
       </c>
       <c r="C18" t="n">
-        <v>9635</v>
+        <v>30939</v>
       </c>
     </row>
     <row r="19">
@@ -2482,10 +2482,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10287</v>
+        <v>31746</v>
       </c>
       <c r="C19" t="n">
-        <v>9534</v>
+        <v>30279</v>
       </c>
     </row>
     <row r="20">
@@ -2493,10 +2493,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9975</v>
+        <v>30532</v>
       </c>
       <c r="C20" t="n">
-        <v>9469</v>
+        <v>29511</v>
       </c>
     </row>
     <row r="21">
@@ -2504,10 +2504,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10175</v>
+        <v>31049</v>
       </c>
       <c r="C21" t="n">
-        <v>9605</v>
+        <v>30141</v>
       </c>
     </row>
     <row r="22">
@@ -2515,10 +2515,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10620</v>
+        <v>32238</v>
       </c>
       <c r="C22" t="n">
-        <v>10095</v>
+        <v>31443</v>
       </c>
     </row>
     <row r="23">
@@ -2526,10 +2526,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11227</v>
+        <v>32573</v>
       </c>
       <c r="C23" t="n">
-        <v>10454</v>
+        <v>31721</v>
       </c>
     </row>
     <row r="24">
@@ -2537,10 +2537,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11241</v>
+        <v>32208</v>
       </c>
       <c r="C24" t="n">
-        <v>10597</v>
+        <v>31953</v>
       </c>
     </row>
     <row r="25">
@@ -2548,10 +2548,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11384</v>
+        <v>32787</v>
       </c>
       <c r="C25" t="n">
-        <v>10755</v>
+        <v>32564</v>
       </c>
     </row>
     <row r="26">
@@ -2559,10 +2559,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11678</v>
+        <v>33084</v>
       </c>
       <c r="C26" t="n">
-        <v>11111</v>
+        <v>33170</v>
       </c>
     </row>
     <row r="27">
@@ -2570,10 +2570,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12039</v>
+        <v>33944</v>
       </c>
       <c r="C27" t="n">
-        <v>11301</v>
+        <v>33762</v>
       </c>
     </row>
     <row r="28">
@@ -2581,10 +2581,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12295</v>
+        <v>34528</v>
       </c>
       <c r="C28" t="n">
-        <v>11550</v>
+        <v>34946</v>
       </c>
     </row>
     <row r="29">
@@ -2592,10 +2592,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11643</v>
+        <v>34687</v>
       </c>
       <c r="C29" t="n">
-        <v>11535</v>
+        <v>34986</v>
       </c>
     </row>
     <row r="30">
@@ -2603,10 +2603,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11831</v>
+        <v>34583</v>
       </c>
       <c r="C30" t="n">
-        <v>11692</v>
+        <v>35482</v>
       </c>
     </row>
     <row r="31">
@@ -2614,10 +2614,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11548</v>
+        <v>34314</v>
       </c>
       <c r="C31" t="n">
-        <v>11766</v>
+        <v>36465</v>
       </c>
     </row>
     <row r="32">
@@ -2625,10 +2625,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11790</v>
+        <v>34951</v>
       </c>
       <c r="C32" t="n">
-        <v>11875</v>
+        <v>36886</v>
       </c>
     </row>
     <row r="33">
@@ -2636,10 +2636,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11696</v>
+        <v>35193</v>
       </c>
       <c r="C33" t="n">
-        <v>11993</v>
+        <v>36715</v>
       </c>
     </row>
     <row r="34">
@@ -2647,10 +2647,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11790</v>
+        <v>34047</v>
       </c>
       <c r="C34" t="n">
-        <v>11806</v>
+        <v>36335</v>
       </c>
     </row>
     <row r="35">
@@ -2658,10 +2658,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11523</v>
+        <v>33917</v>
       </c>
       <c r="C35" t="n">
-        <v>12030</v>
+        <v>36065</v>
       </c>
     </row>
     <row r="36">
@@ -2669,10 +2669,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11516</v>
+        <v>33915</v>
       </c>
       <c r="C36" t="n">
-        <v>12079</v>
+        <v>36008</v>
       </c>
     </row>
     <row r="37">
@@ -2680,10 +2680,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11728</v>
+        <v>34658</v>
       </c>
       <c r="C37" t="n">
-        <v>12297</v>
+        <v>36810</v>
       </c>
     </row>
     <row r="38">
@@ -2691,10 +2691,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11835</v>
+        <v>34406</v>
       </c>
       <c r="C38" t="n">
-        <v>12168</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="39">
@@ -2702,10 +2702,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11858</v>
+        <v>34377</v>
       </c>
       <c r="C39" t="n">
-        <v>12266</v>
+        <v>36724</v>
       </c>
     </row>
     <row r="40">
@@ -2713,10 +2713,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11828</v>
+        <v>35221</v>
       </c>
       <c r="C40" t="n">
-        <v>12022</v>
+        <v>37642</v>
       </c>
     </row>
     <row r="41">
@@ -2724,10 +2724,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11306</v>
+        <v>34476</v>
       </c>
       <c r="C41" t="n">
-        <v>11693</v>
+        <v>35785</v>
       </c>
     </row>
     <row r="42">
@@ -2735,10 +2735,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11219</v>
+        <v>34131</v>
       </c>
       <c r="C42" t="n">
-        <v>11472</v>
+        <v>35485</v>
       </c>
     </row>
     <row r="43">
@@ -2746,10 +2746,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10737</v>
+        <v>32481</v>
       </c>
       <c r="C43" t="n">
-        <v>10924</v>
+        <v>34180</v>
       </c>
     </row>
     <row r="44">
@@ -2757,10 +2757,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10613</v>
+        <v>32095</v>
       </c>
       <c r="C44" t="n">
-        <v>10674</v>
+        <v>33657</v>
       </c>
     </row>
     <row r="45">
@@ -2768,10 +2768,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10277</v>
+        <v>31171</v>
       </c>
       <c r="C45" t="n">
-        <v>10556</v>
+        <v>32962</v>
       </c>
     </row>
     <row r="46">
@@ -2779,10 +2779,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10481</v>
+        <v>31368</v>
       </c>
       <c r="C46" t="n">
-        <v>10715</v>
+        <v>33165</v>
       </c>
     </row>
     <row r="47">
@@ -2790,10 +2790,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10446</v>
+        <v>31744</v>
       </c>
       <c r="C47" t="n">
-        <v>10515</v>
+        <v>33374</v>
       </c>
     </row>
     <row r="48">
@@ -2801,10 +2801,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10630</v>
+        <v>32040</v>
       </c>
       <c r="C48" t="n">
-        <v>10665</v>
+        <v>33848</v>
       </c>
     </row>
     <row r="49">
@@ -2812,10 +2812,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10696</v>
+        <v>33183</v>
       </c>
       <c r="C49" t="n">
-        <v>10940</v>
+        <v>34411</v>
       </c>
     </row>
     <row r="50">
@@ -2823,10 +2823,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10966</v>
+        <v>34136</v>
       </c>
       <c r="C50" t="n">
-        <v>11331</v>
+        <v>35842</v>
       </c>
     </row>
     <row r="51">
@@ -2834,10 +2834,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11511</v>
+        <v>34865</v>
       </c>
       <c r="C51" t="n">
-        <v>12007</v>
+        <v>36848</v>
       </c>
     </row>
     <row r="52">
@@ -2845,10 +2845,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12025</v>
+        <v>35809</v>
       </c>
       <c r="C52" t="n">
-        <v>12257</v>
+        <v>37546</v>
       </c>
     </row>
     <row r="53">
@@ -2856,10 +2856,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11439</v>
+        <v>33133</v>
       </c>
       <c r="C53" t="n">
-        <v>11756</v>
+        <v>34856</v>
       </c>
     </row>
     <row r="54">
@@ -2867,10 +2867,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11405</v>
+        <v>32297</v>
       </c>
       <c r="C54" t="n">
-        <v>11642</v>
+        <v>34042</v>
       </c>
     </row>
     <row r="55">
@@ -2878,10 +2878,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11159</v>
+        <v>30942</v>
       </c>
       <c r="C55" t="n">
-        <v>11393</v>
+        <v>32488</v>
       </c>
     </row>
     <row r="56">
@@ -2889,10 +2889,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10742</v>
+        <v>30691</v>
       </c>
       <c r="C56" t="n">
-        <v>11103</v>
+        <v>32037</v>
       </c>
     </row>
     <row r="57">
@@ -2900,10 +2900,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10859</v>
+        <v>29916</v>
       </c>
       <c r="C57" t="n">
-        <v>11280</v>
+        <v>31476</v>
       </c>
     </row>
     <row r="58">
@@ -2911,10 +2911,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11108</v>
+        <v>30203</v>
       </c>
       <c r="C58" t="n">
-        <v>11476</v>
+        <v>31770</v>
       </c>
     </row>
     <row r="59">
@@ -2922,10 +2922,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11298</v>
+        <v>31395</v>
       </c>
       <c r="C59" t="n">
-        <v>11697</v>
+        <v>32814</v>
       </c>
     </row>
     <row r="60">
@@ -2933,10 +2933,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11448</v>
+        <v>31349</v>
       </c>
       <c r="C60" t="n">
-        <v>11908</v>
+        <v>33298</v>
       </c>
     </row>
     <row r="61">
@@ -2944,10 +2944,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11330</v>
+        <v>31127</v>
       </c>
       <c r="C61" t="n">
-        <v>11890</v>
+        <v>33021</v>
       </c>
     </row>
     <row r="62">
@@ -2955,10 +2955,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11593</v>
+        <v>31083</v>
       </c>
       <c r="C62" t="n">
-        <v>12094</v>
+        <v>32807</v>
       </c>
     </row>
     <row r="63">
@@ -2966,10 +2966,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11114</v>
+        <v>29666</v>
       </c>
       <c r="C63" t="n">
-        <v>11782</v>
+        <v>31293</v>
       </c>
     </row>
     <row r="64">
@@ -2977,10 +2977,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10907</v>
+        <v>29028</v>
       </c>
       <c r="C64" t="n">
-        <v>11769</v>
+        <v>30607</v>
       </c>
     </row>
     <row r="65">
@@ -2988,10 +2988,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10710</v>
+        <v>27935</v>
       </c>
       <c r="C65" t="n">
-        <v>11182</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="66">
@@ -2999,10 +2999,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10385</v>
+        <v>27445</v>
       </c>
       <c r="C66" t="n">
-        <v>11297</v>
+        <v>28942</v>
       </c>
     </row>
     <row r="67">
@@ -3010,10 +3010,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10175</v>
+        <v>26986</v>
       </c>
       <c r="C67" t="n">
-        <v>11082</v>
+        <v>28490</v>
       </c>
     </row>
     <row r="68">
@@ -3021,10 +3021,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10102</v>
+        <v>26206</v>
       </c>
       <c r="C68" t="n">
-        <v>10635</v>
+        <v>27829</v>
       </c>
     </row>
     <row r="69">
@@ -3032,10 +3032,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9739</v>
+        <v>25223</v>
       </c>
       <c r="C69" t="n">
-        <v>10592</v>
+        <v>27168</v>
       </c>
     </row>
     <row r="70">
@@ -3043,10 +3043,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9795</v>
+        <v>25295</v>
       </c>
       <c r="C70" t="n">
-        <v>10524</v>
+        <v>26559</v>
       </c>
     </row>
     <row r="71">
@@ -3054,10 +3054,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9449</v>
+        <v>24901</v>
       </c>
       <c r="C71" t="n">
-        <v>10210</v>
+        <v>25864</v>
       </c>
     </row>
     <row r="72">
@@ -3065,10 +3065,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9206</v>
+        <v>24214</v>
       </c>
       <c r="C72" t="n">
-        <v>10195</v>
+        <v>25305</v>
       </c>
     </row>
     <row r="73">
@@ -3076,10 +3076,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9208</v>
+        <v>23626</v>
       </c>
       <c r="C73" t="n">
-        <v>9861</v>
+        <v>25042</v>
       </c>
     </row>
     <row r="74">
@@ -3087,10 +3087,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8804</v>
+        <v>22950</v>
       </c>
       <c r="C74" t="n">
-        <v>9597</v>
+        <v>24064</v>
       </c>
     </row>
     <row r="75">
@@ -3098,10 +3098,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8519</v>
+        <v>22536</v>
       </c>
       <c r="C75" t="n">
-        <v>9380</v>
+        <v>23236</v>
       </c>
     </row>
     <row r="76">
@@ -3109,10 +3109,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9249</v>
+        <v>23480</v>
       </c>
       <c r="C76" t="n">
-        <v>10009</v>
+        <v>24508</v>
       </c>
     </row>
     <row r="77">
@@ -3120,10 +3120,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7368</v>
+        <v>19081</v>
       </c>
       <c r="C77" t="n">
-        <v>8132</v>
+        <v>19848</v>
       </c>
     </row>
     <row r="78">
@@ -3131,10 +3131,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6842</v>
+        <v>18116</v>
       </c>
       <c r="C78" t="n">
-        <v>7717</v>
+        <v>19238</v>
       </c>
     </row>
     <row r="79">
@@ -3142,10 +3142,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6354</v>
+        <v>16547</v>
       </c>
       <c r="C79" t="n">
-        <v>7015</v>
+        <v>17567</v>
       </c>
     </row>
     <row r="80">
@@ -3153,10 +3153,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5619</v>
+        <v>14079</v>
       </c>
       <c r="C80" t="n">
-        <v>6486</v>
+        <v>15361</v>
       </c>
     </row>
     <row r="81">
@@ -3164,10 +3164,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5358</v>
+        <v>13690</v>
       </c>
       <c r="C81" t="n">
-        <v>6105</v>
+        <v>14854</v>
       </c>
     </row>
   </sheetData>
@@ -3211,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15832</v>
+        <v>9461</v>
       </c>
       <c r="C2" t="n">
-        <v>15012</v>
+        <v>8972</v>
       </c>
     </row>
     <row r="3">
@@ -3222,10 +3222,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16342</v>
+        <v>9488</v>
       </c>
       <c r="C3" t="n">
-        <v>15500</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="4">
@@ -3233,10 +3233,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16673</v>
+        <v>9557</v>
       </c>
       <c r="C4" t="n">
-        <v>15619</v>
+        <v>9156</v>
       </c>
     </row>
     <row r="5">
@@ -3244,10 +3244,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16943</v>
+        <v>9885</v>
       </c>
       <c r="C5" t="n">
-        <v>15992</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="6">
@@ -3255,10 +3255,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17469</v>
+        <v>9967</v>
       </c>
       <c r="C6" t="n">
-        <v>16381</v>
+        <v>9468</v>
       </c>
     </row>
     <row r="7">
@@ -3266,10 +3266,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18009</v>
+        <v>10446</v>
       </c>
       <c r="C7" t="n">
-        <v>16846</v>
+        <v>9981</v>
       </c>
     </row>
     <row r="8">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17727</v>
+        <v>10420</v>
       </c>
       <c r="C8" t="n">
-        <v>16576</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="9">
@@ -3288,10 +3288,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17583</v>
+        <v>10713</v>
       </c>
       <c r="C9" t="n">
-        <v>16895</v>
+        <v>10072</v>
       </c>
     </row>
     <row r="10">
@@ -3299,10 +3299,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17780</v>
+        <v>10772</v>
       </c>
       <c r="C10" t="n">
-        <v>16872</v>
+        <v>10187</v>
       </c>
     </row>
     <row r="11">
@@ -3310,10 +3310,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17516</v>
+        <v>10950</v>
       </c>
       <c r="C11" t="n">
-        <v>16846</v>
+        <v>10350</v>
       </c>
     </row>
     <row r="12">
@@ -3321,10 +3321,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17718</v>
+        <v>10636</v>
       </c>
       <c r="C12" t="n">
-        <v>16818</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="13">
@@ -3332,10 +3332,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17688</v>
+        <v>10992</v>
       </c>
       <c r="C13" t="n">
-        <v>16826</v>
+        <v>10131</v>
       </c>
     </row>
     <row r="14">
@@ -3343,10 +3343,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17513</v>
+        <v>10794</v>
       </c>
       <c r="C14" t="n">
-        <v>16281</v>
+        <v>10276</v>
       </c>
     </row>
     <row r="15">
@@ -3354,10 +3354,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17642</v>
+        <v>10761</v>
       </c>
       <c r="C15" t="n">
-        <v>16790</v>
+        <v>10428</v>
       </c>
     </row>
     <row r="16">
@@ -3365,10 +3365,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17579</v>
+        <v>10741</v>
       </c>
       <c r="C16" t="n">
-        <v>16524</v>
+        <v>10305</v>
       </c>
     </row>
     <row r="17">
@@ -3376,10 +3376,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16744</v>
+        <v>10578</v>
       </c>
       <c r="C17" t="n">
-        <v>15971</v>
+        <v>9802</v>
       </c>
     </row>
     <row r="18">
@@ -3387,10 +3387,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16090</v>
+        <v>10106</v>
       </c>
       <c r="C18" t="n">
-        <v>15039</v>
+        <v>9635</v>
       </c>
     </row>
     <row r="19">
@@ -3398,10 +3398,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15829</v>
+        <v>10287</v>
       </c>
       <c r="C19" t="n">
-        <v>14730</v>
+        <v>9534</v>
       </c>
     </row>
     <row r="20">
@@ -3409,10 +3409,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15004</v>
+        <v>9975</v>
       </c>
       <c r="C20" t="n">
-        <v>14531</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="21">
@@ -3420,10 +3420,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15017</v>
+        <v>10175</v>
       </c>
       <c r="C21" t="n">
-        <v>14313</v>
+        <v>9605</v>
       </c>
     </row>
     <row r="22">
@@ -3431,10 +3431,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15758</v>
+        <v>10620</v>
       </c>
       <c r="C22" t="n">
-        <v>14803</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="23">
@@ -3442,10 +3442,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16007</v>
+        <v>11227</v>
       </c>
       <c r="C23" t="n">
-        <v>15387</v>
+        <v>10454</v>
       </c>
     </row>
     <row r="24">
@@ -3453,10 +3453,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16393</v>
+        <v>11241</v>
       </c>
       <c r="C24" t="n">
-        <v>15607</v>
+        <v>10597</v>
       </c>
     </row>
     <row r="25">
@@ -3464,10 +3464,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16360</v>
+        <v>11384</v>
       </c>
       <c r="C25" t="n">
-        <v>15706</v>
+        <v>10755</v>
       </c>
     </row>
     <row r="26">
@@ -3475,10 +3475,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16599</v>
+        <v>11678</v>
       </c>
       <c r="C26" t="n">
-        <v>16200</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="27">
@@ -3486,10 +3486,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17258</v>
+        <v>12039</v>
       </c>
       <c r="C27" t="n">
-        <v>16511</v>
+        <v>11301</v>
       </c>
     </row>
     <row r="28">
@@ -3497,10 +3497,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17753</v>
+        <v>12295</v>
       </c>
       <c r="C28" t="n">
-        <v>17282</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="29">
@@ -3508,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17691</v>
+        <v>11643</v>
       </c>
       <c r="C29" t="n">
-        <v>17766</v>
+        <v>11535</v>
       </c>
     </row>
     <row r="30">
@@ -3519,10 +3519,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17393</v>
+        <v>11831</v>
       </c>
       <c r="C30" t="n">
-        <v>18148</v>
+        <v>11692</v>
       </c>
     </row>
     <row r="31">
@@ -3530,10 +3530,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17967</v>
+        <v>11548</v>
       </c>
       <c r="C31" t="n">
-        <v>18272</v>
+        <v>11766</v>
       </c>
     </row>
     <row r="32">
@@ -3541,10 +3541,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18612</v>
+        <v>11790</v>
       </c>
       <c r="C32" t="n">
-        <v>19512</v>
+        <v>11875</v>
       </c>
     </row>
     <row r="33">
@@ -3552,10 +3552,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19061</v>
+        <v>11696</v>
       </c>
       <c r="C33" t="n">
-        <v>19839</v>
+        <v>11993</v>
       </c>
     </row>
     <row r="34">
@@ -3563,10 +3563,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19180</v>
+        <v>11790</v>
       </c>
       <c r="C34" t="n">
-        <v>20264</v>
+        <v>11806</v>
       </c>
     </row>
     <row r="35">
@@ -3574,10 +3574,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19392</v>
+        <v>11523</v>
       </c>
       <c r="C35" t="n">
-        <v>20262</v>
+        <v>12030</v>
       </c>
     </row>
     <row r="36">
@@ -3585,10 +3585,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19665</v>
+        <v>11516</v>
       </c>
       <c r="C36" t="n">
-        <v>20524</v>
+        <v>12079</v>
       </c>
     </row>
     <row r="37">
@@ -3596,10 +3596,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20082</v>
+        <v>11728</v>
       </c>
       <c r="C37" t="n">
-        <v>20688</v>
+        <v>12297</v>
       </c>
     </row>
     <row r="38">
@@ -3607,10 +3607,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20028</v>
+        <v>11835</v>
       </c>
       <c r="C38" t="n">
-        <v>20600</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="39">
@@ -3618,10 +3618,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19946</v>
+        <v>11858</v>
       </c>
       <c r="C39" t="n">
-        <v>20412</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="40">
@@ -3629,10 +3629,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20039</v>
+        <v>11828</v>
       </c>
       <c r="C40" t="n">
-        <v>20212</v>
+        <v>12022</v>
       </c>
     </row>
     <row r="41">
@@ -3640,10 +3640,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19434</v>
+        <v>11306</v>
       </c>
       <c r="C41" t="n">
-        <v>19463</v>
+        <v>11693</v>
       </c>
     </row>
     <row r="42">
@@ -3651,10 +3651,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19174</v>
+        <v>11219</v>
       </c>
       <c r="C42" t="n">
-        <v>19178</v>
+        <v>11472</v>
       </c>
     </row>
     <row r="43">
@@ -3662,10 +3662,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18091</v>
+        <v>10737</v>
       </c>
       <c r="C43" t="n">
-        <v>18154</v>
+        <v>10924</v>
       </c>
     </row>
     <row r="44">
@@ -3673,10 +3673,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17639</v>
+        <v>10613</v>
       </c>
       <c r="C44" t="n">
-        <v>17918</v>
+        <v>10674</v>
       </c>
     </row>
     <row r="45">
@@ -3684,10 +3684,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17357</v>
+        <v>10277</v>
       </c>
       <c r="C45" t="n">
-        <v>17133</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="46">
@@ -3695,10 +3695,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16930</v>
+        <v>10481</v>
       </c>
       <c r="C46" t="n">
-        <v>17008</v>
+        <v>10715</v>
       </c>
     </row>
     <row r="47">
@@ -3706,10 +3706,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17204</v>
+        <v>10446</v>
       </c>
       <c r="C47" t="n">
-        <v>17051</v>
+        <v>10515</v>
       </c>
     </row>
     <row r="48">
@@ -3717,10 +3717,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16909</v>
+        <v>10630</v>
       </c>
       <c r="C48" t="n">
-        <v>17352</v>
+        <v>10665</v>
       </c>
     </row>
     <row r="49">
@@ -3728,10 +3728,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17016</v>
+        <v>10696</v>
       </c>
       <c r="C49" t="n">
-        <v>17251</v>
+        <v>10940</v>
       </c>
     </row>
     <row r="50">
@@ -3739,10 +3739,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17549</v>
+        <v>10966</v>
       </c>
       <c r="C50" t="n">
-        <v>17454</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="51">
@@ -3750,10 +3750,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18394</v>
+        <v>11511</v>
       </c>
       <c r="C51" t="n">
-        <v>18467</v>
+        <v>12007</v>
       </c>
     </row>
     <row r="52">
@@ -3761,10 +3761,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18791</v>
+        <v>12025</v>
       </c>
       <c r="C52" t="n">
-        <v>18887</v>
+        <v>12257</v>
       </c>
     </row>
     <row r="53">
@@ -3772,10 +3772,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17559</v>
+        <v>11439</v>
       </c>
       <c r="C53" t="n">
-        <v>17531</v>
+        <v>11756</v>
       </c>
     </row>
     <row r="54">
@@ -3783,10 +3783,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17479</v>
+        <v>11405</v>
       </c>
       <c r="C54" t="n">
-        <v>17538</v>
+        <v>11642</v>
       </c>
     </row>
     <row r="55">
@@ -3794,10 +3794,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16649</v>
+        <v>11159</v>
       </c>
       <c r="C55" t="n">
-        <v>16732</v>
+        <v>11393</v>
       </c>
     </row>
     <row r="56">
@@ -3805,10 +3805,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16207</v>
+        <v>10742</v>
       </c>
       <c r="C56" t="n">
-        <v>16249</v>
+        <v>11103</v>
       </c>
     </row>
     <row r="57">
@@ -3816,10 +3816,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16119</v>
+        <v>10859</v>
       </c>
       <c r="C57" t="n">
-        <v>16246</v>
+        <v>11280</v>
       </c>
     </row>
     <row r="58">
@@ -3827,10 +3827,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15963</v>
+        <v>11108</v>
       </c>
       <c r="C58" t="n">
-        <v>16290</v>
+        <v>11476</v>
       </c>
     </row>
     <row r="59">
@@ -3838,10 +3838,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16332</v>
+        <v>11298</v>
       </c>
       <c r="C59" t="n">
-        <v>16517</v>
+        <v>11697</v>
       </c>
     </row>
     <row r="60">
@@ -3849,10 +3849,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16461</v>
+        <v>11448</v>
       </c>
       <c r="C60" t="n">
-        <v>16565</v>
+        <v>11908</v>
       </c>
     </row>
     <row r="61">
@@ -3860,10 +3860,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15940</v>
+        <v>11330</v>
       </c>
       <c r="C61" t="n">
-        <v>16347</v>
+        <v>11890</v>
       </c>
     </row>
     <row r="62">
@@ -3871,10 +3871,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15893</v>
+        <v>11593</v>
       </c>
       <c r="C62" t="n">
-        <v>16199</v>
+        <v>12094</v>
       </c>
     </row>
     <row r="63">
@@ -3882,10 +3882,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15140</v>
+        <v>11114</v>
       </c>
       <c r="C63" t="n">
-        <v>15763</v>
+        <v>11782</v>
       </c>
     </row>
     <row r="64">
@@ -3893,10 +3893,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14669</v>
+        <v>10907</v>
       </c>
       <c r="C64" t="n">
-        <v>15495</v>
+        <v>11769</v>
       </c>
     </row>
     <row r="65">
@@ -3904,10 +3904,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14190</v>
+        <v>10710</v>
       </c>
       <c r="C65" t="n">
-        <v>14912</v>
+        <v>11182</v>
       </c>
     </row>
     <row r="66">
@@ -3915,10 +3915,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13900</v>
+        <v>10385</v>
       </c>
       <c r="C66" t="n">
-        <v>14506</v>
+        <v>11297</v>
       </c>
     </row>
     <row r="67">
@@ -3926,10 +3926,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14005</v>
+        <v>10175</v>
       </c>
       <c r="C67" t="n">
-        <v>14609</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="68">
@@ -3937,10 +3937,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13012</v>
+        <v>10102</v>
       </c>
       <c r="C68" t="n">
-        <v>14133</v>
+        <v>10635</v>
       </c>
     </row>
     <row r="69">
@@ -3948,10 +3948,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12510</v>
+        <v>9739</v>
       </c>
       <c r="C69" t="n">
-        <v>13544</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="70">
@@ -3959,10 +3959,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12316</v>
+        <v>9795</v>
       </c>
       <c r="C70" t="n">
-        <v>13260</v>
+        <v>10524</v>
       </c>
     </row>
     <row r="71">
@@ -3970,10 +3970,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12012</v>
+        <v>9449</v>
       </c>
       <c r="C71" t="n">
-        <v>12792</v>
+        <v>10210</v>
       </c>
     </row>
     <row r="72">
@@ -3981,10 +3981,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11908</v>
+        <v>9206</v>
       </c>
       <c r="C72" t="n">
-        <v>12312</v>
+        <v>10195</v>
       </c>
     </row>
     <row r="73">
@@ -3992,10 +3992,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11391</v>
+        <v>9208</v>
       </c>
       <c r="C73" t="n">
-        <v>11918</v>
+        <v>9861</v>
       </c>
     </row>
     <row r="74">
@@ -4003,10 +4003,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10960</v>
+        <v>8804</v>
       </c>
       <c r="C74" t="n">
-        <v>11657</v>
+        <v>9597</v>
       </c>
     </row>
     <row r="75">
@@ -4014,10 +4014,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10864</v>
+        <v>8519</v>
       </c>
       <c r="C75" t="n">
-        <v>11185</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="76">
@@ -4025,10 +4025,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11297</v>
+        <v>9249</v>
       </c>
       <c r="C76" t="n">
-        <v>11715</v>
+        <v>10009</v>
       </c>
     </row>
     <row r="77">
@@ -4036,10 +4036,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8671</v>
+        <v>7368</v>
       </c>
       <c r="C77" t="n">
-        <v>9048</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="78">
@@ -4047,10 +4047,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8163</v>
+        <v>6842</v>
       </c>
       <c r="C78" t="n">
-        <v>8536</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="79">
@@ -4058,10 +4058,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7750</v>
+        <v>6354</v>
       </c>
       <c r="C79" t="n">
-        <v>8234</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="80">
@@ -4069,10 +4069,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6580</v>
+        <v>5619</v>
       </c>
       <c r="C80" t="n">
-        <v>7242</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="81">
@@ -4080,10 +4080,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6645</v>
+        <v>5358</v>
       </c>
       <c r="C81" t="n">
-        <v>7148</v>
+        <v>6105</v>
       </c>
     </row>
   </sheetData>
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>15832</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>15012</v>
       </c>
     </row>
     <row r="3">
@@ -4138,10 +4138,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>16342</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="4">
@@ -4149,10 +4149,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>16673</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>15619</v>
       </c>
     </row>
     <row r="5">
@@ -4160,10 +4160,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>16943</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>15992</v>
       </c>
     </row>
     <row r="6">
@@ -4171,10 +4171,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>17469</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>16381</v>
       </c>
     </row>
     <row r="7">
@@ -4182,10 +4182,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>18009</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="8">
@@ -4193,10 +4193,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>17727</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>16576</v>
       </c>
     </row>
     <row r="9">
@@ -4204,10 +4204,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>17583</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>16895</v>
       </c>
     </row>
     <row r="10">
@@ -4215,10 +4215,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>17780</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>16872</v>
       </c>
     </row>
     <row r="11">
@@ -4226,10 +4226,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>17516</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="12">
@@ -4237,10 +4237,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>17718</v>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>16818</v>
       </c>
     </row>
     <row r="13">
@@ -4248,10 +4248,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>17688</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>16826</v>
       </c>
     </row>
     <row r="14">
@@ -4259,10 +4259,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>17513</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="15">
@@ -4270,10 +4270,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>17642</v>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>16790</v>
       </c>
     </row>
     <row r="16">
@@ -4281,10 +4281,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>17579</v>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>16524</v>
       </c>
     </row>
     <row r="17">
@@ -4292,10 +4292,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>16744</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>15971</v>
       </c>
     </row>
     <row r="18">
@@ -4303,10 +4303,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>16090</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>15039</v>
       </c>
     </row>
     <row r="19">
@@ -4314,10 +4314,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>15829</v>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>14730</v>
       </c>
     </row>
     <row r="20">
@@ -4325,10 +4325,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>15004</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>14531</v>
       </c>
     </row>
     <row r="21">
@@ -4336,10 +4336,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>15017</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>14313</v>
       </c>
     </row>
     <row r="22">
@@ -4347,10 +4347,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>15758</v>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>14803</v>
       </c>
     </row>
     <row r="23">
@@ -4358,10 +4358,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>16007</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>15387</v>
       </c>
     </row>
     <row r="24">
@@ -4369,10 +4369,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>16393</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>15607</v>
       </c>
     </row>
     <row r="25">
@@ -4380,10 +4380,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21</v>
+        <v>16360</v>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>15706</v>
       </c>
     </row>
     <row r="26">
@@ -4391,10 +4391,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>32</v>
+        <v>16599</v>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="27">
@@ -4402,10 +4402,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>17258</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>16511</v>
       </c>
     </row>
     <row r="28">
@@ -4413,10 +4413,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>36</v>
+        <v>17753</v>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>17282</v>
       </c>
     </row>
     <row r="29">
@@ -4424,10 +4424,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>17691</v>
       </c>
       <c r="C29" t="n">
-        <v>22</v>
+        <v>17766</v>
       </c>
     </row>
     <row r="30">
@@ -4435,10 +4435,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>33</v>
+        <v>17393</v>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>18148</v>
       </c>
     </row>
     <row r="31">
@@ -4446,10 +4446,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>35</v>
+        <v>17967</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>18272</v>
       </c>
     </row>
     <row r="32">
@@ -4457,10 +4457,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>37</v>
+        <v>18612</v>
       </c>
       <c r="C32" t="n">
-        <v>18</v>
+        <v>19512</v>
       </c>
     </row>
     <row r="33">
@@ -4468,10 +4468,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>19061</v>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>19839</v>
       </c>
     </row>
     <row r="34">
@@ -4479,10 +4479,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22</v>
+        <v>19180</v>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
+        <v>20264</v>
       </c>
     </row>
     <row r="35">
@@ -4490,10 +4490,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>52</v>
+        <v>19392</v>
       </c>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>20262</v>
       </c>
     </row>
     <row r="36">
@@ -4501,10 +4501,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>38</v>
+        <v>19665</v>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>20524</v>
       </c>
     </row>
     <row r="37">
@@ -4512,10 +4512,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>33</v>
+        <v>20082</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>20688</v>
       </c>
     </row>
     <row r="38">
@@ -4523,10 +4523,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>33</v>
+        <v>20028</v>
       </c>
       <c r="C38" t="n">
-        <v>28</v>
+        <v>20600</v>
       </c>
     </row>
     <row r="39">
@@ -4534,10 +4534,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34</v>
+        <v>19946</v>
       </c>
       <c r="C39" t="n">
-        <v>41</v>
+        <v>20412</v>
       </c>
     </row>
     <row r="40">
@@ -4545,10 +4545,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
+        <v>20039</v>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>20212</v>
       </c>
     </row>
     <row r="41">
@@ -4556,10 +4556,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27</v>
+        <v>19434</v>
       </c>
       <c r="C41" t="n">
-        <v>41</v>
+        <v>19463</v>
       </c>
     </row>
     <row r="42">
@@ -4567,10 +4567,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32</v>
+        <v>19174</v>
       </c>
       <c r="C42" t="n">
-        <v>24</v>
+        <v>19178</v>
       </c>
     </row>
     <row r="43">
@@ -4578,10 +4578,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34</v>
+        <v>18091</v>
       </c>
       <c r="C43" t="n">
-        <v>26</v>
+        <v>18154</v>
       </c>
     </row>
     <row r="44">
@@ -4589,10 +4589,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27</v>
+        <v>17639</v>
       </c>
       <c r="C44" t="n">
-        <v>33</v>
+        <v>17918</v>
       </c>
     </row>
     <row r="45">
@@ -4600,10 +4600,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29</v>
+        <v>17357</v>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>17133</v>
       </c>
     </row>
     <row r="46">
@@ -4611,10 +4611,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25</v>
+        <v>16930</v>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>17008</v>
       </c>
     </row>
     <row r="47">
@@ -4622,10 +4622,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27</v>
+        <v>17204</v>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>17051</v>
       </c>
     </row>
     <row r="48">
@@ -4633,10 +4633,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22</v>
+        <v>16909</v>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>17352</v>
       </c>
     </row>
     <row r="49">
@@ -4644,10 +4644,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
+        <v>17016</v>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>17251</v>
       </c>
     </row>
     <row r="50">
@@ -4655,10 +4655,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>37</v>
+        <v>17549</v>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>17454</v>
       </c>
     </row>
     <row r="51">
@@ -4666,10 +4666,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>18394</v>
       </c>
       <c r="C51" t="n">
-        <v>37</v>
+        <v>18467</v>
       </c>
     </row>
     <row r="52">
@@ -4677,10 +4677,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>42</v>
+        <v>18791</v>
       </c>
       <c r="C52" t="n">
-        <v>38</v>
+        <v>18887</v>
       </c>
     </row>
     <row r="53">
@@ -4688,10 +4688,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>44</v>
+        <v>17559</v>
       </c>
       <c r="C53" t="n">
-        <v>36</v>
+        <v>17531</v>
       </c>
     </row>
     <row r="54">
@@ -4699,10 +4699,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>37</v>
+        <v>17479</v>
       </c>
       <c r="C54" t="n">
-        <v>39</v>
+        <v>17538</v>
       </c>
     </row>
     <row r="55">
@@ -4710,10 +4710,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>30</v>
+        <v>16649</v>
       </c>
       <c r="C55" t="n">
-        <v>31</v>
+        <v>16732</v>
       </c>
     </row>
     <row r="56">
@@ -4721,10 +4721,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34</v>
+        <v>16207</v>
       </c>
       <c r="C56" t="n">
-        <v>26</v>
+        <v>16249</v>
       </c>
     </row>
     <row r="57">
@@ -4732,10 +4732,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>39</v>
+        <v>16119</v>
       </c>
       <c r="C57" t="n">
-        <v>42</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="58">
@@ -4743,10 +4743,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>35</v>
+        <v>15963</v>
       </c>
       <c r="C58" t="n">
-        <v>33</v>
+        <v>16290</v>
       </c>
     </row>
     <row r="59">
@@ -4754,10 +4754,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>36</v>
+        <v>16332</v>
       </c>
       <c r="C59" t="n">
-        <v>37</v>
+        <v>16517</v>
       </c>
     </row>
     <row r="60">
@@ -4765,10 +4765,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>42</v>
+        <v>16461</v>
       </c>
       <c r="C60" t="n">
-        <v>35</v>
+        <v>16565</v>
       </c>
     </row>
     <row r="61">
@@ -4776,10 +4776,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>43</v>
+        <v>15940</v>
       </c>
       <c r="C61" t="n">
-        <v>49</v>
+        <v>16347</v>
       </c>
     </row>
     <row r="62">
@@ -4787,10 +4787,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30</v>
+        <v>15893</v>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>16199</v>
       </c>
     </row>
     <row r="63">
@@ -4798,10 +4798,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>45</v>
+        <v>15140</v>
       </c>
       <c r="C63" t="n">
-        <v>41</v>
+        <v>15763</v>
       </c>
     </row>
     <row r="64">
@@ -4809,10 +4809,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>42</v>
+        <v>14669</v>
       </c>
       <c r="C64" t="n">
-        <v>42</v>
+        <v>15495</v>
       </c>
     </row>
     <row r="65">
@@ -4820,10 +4820,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>43</v>
+        <v>14190</v>
       </c>
       <c r="C65" t="n">
-        <v>33</v>
+        <v>14912</v>
       </c>
     </row>
     <row r="66">
@@ -4831,10 +4831,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34</v>
+        <v>13900</v>
       </c>
       <c r="C66" t="n">
-        <v>40</v>
+        <v>14506</v>
       </c>
     </row>
     <row r="67">
@@ -4842,10 +4842,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>38</v>
+        <v>14005</v>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>14609</v>
       </c>
     </row>
     <row r="68">
@@ -4853,10 +4853,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>37</v>
+        <v>13012</v>
       </c>
       <c r="C68" t="n">
-        <v>38</v>
+        <v>14133</v>
       </c>
     </row>
     <row r="69">
@@ -4864,10 +4864,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>12510</v>
       </c>
       <c r="C69" t="n">
-        <v>21</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="70">
@@ -4875,10 +4875,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>12316</v>
       </c>
       <c r="C70" t="n">
-        <v>34</v>
+        <v>13260</v>
       </c>
     </row>
     <row r="71">
@@ -4886,10 +4886,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>29</v>
+        <v>12012</v>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>12792</v>
       </c>
     </row>
     <row r="72">
@@ -4897,10 +4897,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>48</v>
+        <v>11908</v>
       </c>
       <c r="C72" t="n">
-        <v>23</v>
+        <v>12312</v>
       </c>
     </row>
     <row r="73">
@@ -4908,10 +4908,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>42</v>
+        <v>11391</v>
       </c>
       <c r="C73" t="n">
-        <v>33</v>
+        <v>11918</v>
       </c>
     </row>
     <row r="74">
@@ -4919,10 +4919,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30</v>
+        <v>10960</v>
       </c>
       <c r="C74" t="n">
-        <v>28</v>
+        <v>11657</v>
       </c>
     </row>
     <row r="75">
@@ -4930,10 +4930,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22</v>
+        <v>10864</v>
       </c>
       <c r="C75" t="n">
-        <v>14</v>
+        <v>11185</v>
       </c>
     </row>
     <row r="76">
@@ -4941,10 +4941,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15</v>
+        <v>11297</v>
       </c>
       <c r="C76" t="n">
-        <v>11</v>
+        <v>11715</v>
       </c>
     </row>
     <row r="77">
@@ -4952,10 +4952,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11</v>
+        <v>8671</v>
       </c>
       <c r="C77" t="n">
-        <v>14</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="78">
@@ -4963,10 +4963,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15</v>
+        <v>8163</v>
       </c>
       <c r="C78" t="n">
-        <v>24</v>
+        <v>8536</v>
       </c>
     </row>
     <row r="79">
@@ -4974,10 +4974,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>7750</v>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="80">
@@ -4985,10 +4985,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>18</v>
+        <v>6580</v>
       </c>
       <c r="C80" t="n">
-        <v>14</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="81">
@@ -4996,10 +4996,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>6645</v>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>7148</v>
       </c>
     </row>
   </sheetData>
@@ -5043,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2719</v>
+        <v>2819</v>
       </c>
       <c r="C2" t="n">
-        <v>2399</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="3">
@@ -5054,10 +5054,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2695</v>
+        <v>2886</v>
       </c>
       <c r="C3" t="n">
-        <v>2610</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="4">
@@ -5065,10 +5065,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2724</v>
+        <v>2933</v>
       </c>
       <c r="C4" t="n">
-        <v>2597</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="5">
@@ -5076,10 +5076,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2683</v>
+        <v>2911</v>
       </c>
       <c r="C5" t="n">
-        <v>2582</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="6">
@@ -5087,10 +5087,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2938</v>
+        <v>2973</v>
       </c>
       <c r="C6" t="n">
-        <v>2719</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="7">
@@ -5098,10 +5098,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3005</v>
+        <v>3189</v>
       </c>
       <c r="C7" t="n">
-        <v>2816</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="8">
@@ -5109,10 +5109,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3066</v>
+        <v>3121</v>
       </c>
       <c r="C8" t="n">
-        <v>2829</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="9">
@@ -5120,10 +5120,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3040</v>
+        <v>3176</v>
       </c>
       <c r="C9" t="n">
-        <v>2834</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="10">
@@ -5131,10 +5131,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2987</v>
+        <v>3221</v>
       </c>
       <c r="C10" t="n">
-        <v>2900</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="11">
@@ -5142,10 +5142,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2914</v>
+        <v>3170</v>
       </c>
       <c r="C11" t="n">
-        <v>2770</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="12">
@@ -5153,10 +5153,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2907</v>
+        <v>3391</v>
       </c>
       <c r="C12" t="n">
-        <v>2729</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="13">
@@ -5164,10 +5164,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2950</v>
+        <v>3338</v>
       </c>
       <c r="C13" t="n">
-        <v>2778</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="14">
@@ -5175,10 +5175,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2788</v>
+        <v>3471</v>
       </c>
       <c r="C14" t="n">
-        <v>2575</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="15">
@@ -5186,10 +5186,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2671</v>
+        <v>3441</v>
       </c>
       <c r="C15" t="n">
-        <v>2526</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="16">
@@ -5197,10 +5197,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2701</v>
+        <v>3480</v>
       </c>
       <c r="C16" t="n">
-        <v>2479</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="17">
@@ -5208,10 +5208,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2666</v>
+        <v>3356</v>
       </c>
       <c r="C17" t="n">
-        <v>2411</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="18">
@@ -5219,10 +5219,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2456</v>
+        <v>3238</v>
       </c>
       <c r="C18" t="n">
-        <v>2272</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="19">
@@ -5230,10 +5230,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2414</v>
+        <v>3047</v>
       </c>
       <c r="C19" t="n">
-        <v>2294</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="20">
@@ -5241,10 +5241,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2867</v>
+        <v>2944</v>
       </c>
       <c r="C20" t="n">
-        <v>2847</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="21">
@@ -5252,10 +5252,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3012</v>
+        <v>2936</v>
       </c>
       <c r="C21" t="n">
-        <v>3103</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="22">
@@ -5263,10 +5263,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3199</v>
+        <v>3017</v>
       </c>
       <c r="C22" t="n">
-        <v>3114</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="23">
@@ -5274,10 +5274,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3395</v>
+        <v>3136</v>
       </c>
       <c r="C23" t="n">
-        <v>3313</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="24">
@@ -5285,10 +5285,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3477</v>
+        <v>3096</v>
       </c>
       <c r="C24" t="n">
-        <v>3397</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="25">
@@ -5296,10 +5296,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3490</v>
+        <v>3184</v>
       </c>
       <c r="C25" t="n">
-        <v>3640</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="26">
@@ -5307,10 +5307,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3528</v>
+        <v>3364</v>
       </c>
       <c r="C26" t="n">
-        <v>3701</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="27">
@@ -5318,10 +5318,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3711</v>
+        <v>3585</v>
       </c>
       <c r="C27" t="n">
-        <v>3678</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="28">
@@ -5329,10 +5329,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3977</v>
+        <v>4011</v>
       </c>
       <c r="C28" t="n">
-        <v>3862</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="29">
@@ -5340,10 +5340,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4010</v>
+        <v>4071</v>
       </c>
       <c r="C29" t="n">
-        <v>3976</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="30">
@@ -5351,10 +5351,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4067</v>
+        <v>3986</v>
       </c>
       <c r="C30" t="n">
-        <v>4019</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="31">
@@ -5362,10 +5362,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3966</v>
+        <v>3928</v>
       </c>
       <c r="C31" t="n">
-        <v>4007</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="32">
@@ -5373,10 +5373,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3923</v>
+        <v>3965</v>
       </c>
       <c r="C32" t="n">
-        <v>4008</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="33">
@@ -5384,10 +5384,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3960</v>
+        <v>3927</v>
       </c>
       <c r="C33" t="n">
-        <v>3987</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="34">
@@ -5395,10 +5395,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3730</v>
+        <v>3762</v>
       </c>
       <c r="C34" t="n">
-        <v>3889</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="35">
@@ -5406,10 +5406,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3653</v>
+        <v>3564</v>
       </c>
       <c r="C35" t="n">
-        <v>3807</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="36">
@@ -5417,10 +5417,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3698</v>
+        <v>3562</v>
       </c>
       <c r="C36" t="n">
-        <v>3815</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="37">
@@ -5428,10 +5428,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3742</v>
+        <v>3526</v>
       </c>
       <c r="C37" t="n">
-        <v>3795</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="38">
@@ -5439,10 +5439,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3646</v>
+        <v>3434</v>
       </c>
       <c r="C38" t="n">
-        <v>3934</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="39">
@@ -5450,10 +5450,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3675</v>
+        <v>3333</v>
       </c>
       <c r="C39" t="n">
-        <v>3830</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="40">
@@ -5461,10 +5461,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3673</v>
+        <v>3277</v>
       </c>
       <c r="C40" t="n">
-        <v>3649</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="41">
@@ -5472,10 +5472,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3589</v>
+        <v>3290</v>
       </c>
       <c r="C41" t="n">
-        <v>3709</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="42">
@@ -5483,10 +5483,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3519</v>
+        <v>3089</v>
       </c>
       <c r="C42" t="n">
-        <v>3542</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="43">
@@ -5494,10 +5494,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3170</v>
+        <v>2992</v>
       </c>
       <c r="C43" t="n">
-        <v>3414</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="44">
@@ -5505,10 +5505,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3223</v>
+        <v>3078</v>
       </c>
       <c r="C44" t="n">
-        <v>3207</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="45">
@@ -5516,10 +5516,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3101</v>
+        <v>2958</v>
       </c>
       <c r="C45" t="n">
-        <v>2943</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="46">
@@ -5527,10 +5527,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2994</v>
+        <v>2917</v>
       </c>
       <c r="C46" t="n">
-        <v>3016</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="47">
@@ -5538,10 +5538,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2893</v>
+        <v>3082</v>
       </c>
       <c r="C47" t="n">
-        <v>2832</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="48">
@@ -5549,10 +5549,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2978</v>
+        <v>3093</v>
       </c>
       <c r="C48" t="n">
-        <v>2987</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="49">
@@ -5560,10 +5560,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2852</v>
+        <v>3208</v>
       </c>
       <c r="C49" t="n">
-        <v>2912</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="50">
@@ -5571,10 +5571,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2857</v>
+        <v>3232</v>
       </c>
       <c r="C50" t="n">
-        <v>3042</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="51">
@@ -5582,10 +5582,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2911</v>
+        <v>3481</v>
       </c>
       <c r="C51" t="n">
-        <v>3027</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="52">
@@ -5593,10 +5593,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3024</v>
+        <v>3625</v>
       </c>
       <c r="C52" t="n">
-        <v>3028</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="53">
@@ -5604,10 +5604,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2751</v>
+        <v>3484</v>
       </c>
       <c r="C53" t="n">
-        <v>2808</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="54">
@@ -5615,10 +5615,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2609</v>
+        <v>3512</v>
       </c>
       <c r="C54" t="n">
-        <v>2749</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="55">
@@ -5626,10 +5626,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2560</v>
+        <v>3378</v>
       </c>
       <c r="C55" t="n">
-        <v>2544</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="56">
@@ -5637,10 +5637,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2416</v>
+        <v>3239</v>
       </c>
       <c r="C56" t="n">
-        <v>2440</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="57">
@@ -5648,10 +5648,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2327</v>
+        <v>3163</v>
       </c>
       <c r="C57" t="n">
-        <v>2543</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="58">
@@ -5659,10 +5659,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2383</v>
+        <v>3400</v>
       </c>
       <c r="C58" t="n">
-        <v>2422</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="59">
@@ -5670,10 +5670,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2303</v>
+        <v>3683</v>
       </c>
       <c r="C59" t="n">
-        <v>2468</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="60">
@@ -5681,10 +5681,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2329</v>
+        <v>3702</v>
       </c>
       <c r="C60" t="n">
-        <v>2356</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="61">
@@ -5692,10 +5692,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2322</v>
+        <v>3935</v>
       </c>
       <c r="C61" t="n">
-        <v>2479</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="62">
@@ -5703,10 +5703,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2227</v>
+        <v>3860</v>
       </c>
       <c r="C62" t="n">
-        <v>2383</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="63">
@@ -5714,10 +5714,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2166</v>
+        <v>3722</v>
       </c>
       <c r="C63" t="n">
-        <v>2271</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="64">
@@ -5725,10 +5725,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2001</v>
+        <v>3710</v>
       </c>
       <c r="C64" t="n">
-        <v>2253</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="65">
@@ -5736,10 +5736,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1957</v>
+        <v>3692</v>
       </c>
       <c r="C65" t="n">
-        <v>2185</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="66">
@@ -5747,10 +5747,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1889</v>
+        <v>3503</v>
       </c>
       <c r="C66" t="n">
-        <v>2148</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="67">
@@ -5758,10 +5758,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1827</v>
+        <v>3646</v>
       </c>
       <c r="C67" t="n">
-        <v>2094</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="68">
@@ -5769,10 +5769,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1683</v>
+        <v>3455</v>
       </c>
       <c r="C68" t="n">
-        <v>1961</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="69">
@@ -5780,10 +5780,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1752</v>
+        <v>3228</v>
       </c>
       <c r="C69" t="n">
-        <v>1915</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="70">
@@ -5791,10 +5791,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1755</v>
+        <v>3409</v>
       </c>
       <c r="C70" t="n">
-        <v>1953</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="71">
@@ -5802,10 +5802,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1618</v>
+        <v>3379</v>
       </c>
       <c r="C71" t="n">
-        <v>1950</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="72">
@@ -5813,10 +5813,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1617</v>
+        <v>3206</v>
       </c>
       <c r="C72" t="n">
-        <v>1918</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="73">
@@ -5824,10 +5824,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1620</v>
+        <v>3163</v>
       </c>
       <c r="C73" t="n">
-        <v>1866</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="74">
@@ -5835,10 +5835,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1555</v>
+        <v>2948</v>
       </c>
       <c r="C74" t="n">
-        <v>1741</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="75">
@@ -5846,10 +5846,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1579</v>
+        <v>2979</v>
       </c>
       <c r="C75" t="n">
-        <v>1766</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="76">
@@ -5857,10 +5857,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1630</v>
+        <v>3236</v>
       </c>
       <c r="C76" t="n">
-        <v>1879</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="77">
@@ -5868,10 +5868,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1362</v>
+        <v>2418</v>
       </c>
       <c r="C77" t="n">
-        <v>1470</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="78">
@@ -5879,10 +5879,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1157</v>
+        <v>2228</v>
       </c>
       <c r="C78" t="n">
-        <v>1331</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="79">
@@ -5890,10 +5890,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1069</v>
+        <v>2200</v>
       </c>
       <c r="C79" t="n">
-        <v>1283</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="80">
@@ -5901,10 +5901,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>924</v>
+        <v>1870</v>
       </c>
       <c r="C80" t="n">
-        <v>1112</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="81">
@@ -5912,10 +5912,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>944</v>
+        <v>1816</v>
       </c>
       <c r="C81" t="n">
-        <v>1095</v>
+        <v>1951</v>
       </c>
     </row>
   </sheetData>
@@ -5959,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47069</v>
+        <v>1566</v>
       </c>
       <c r="C2" t="n">
-        <v>44443</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="3">
@@ -5970,10 +5970,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>47785</v>
+        <v>1758</v>
       </c>
       <c r="C3" t="n">
-        <v>45457</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="4">
@@ -5981,10 +5981,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48413</v>
+        <v>1665</v>
       </c>
       <c r="C4" t="n">
-        <v>45172</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="5">
@@ -5992,10 +5992,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48218</v>
+        <v>1716</v>
       </c>
       <c r="C5" t="n">
-        <v>45414</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6">
@@ -6003,10 +6003,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49228</v>
+        <v>1746</v>
       </c>
       <c r="C6" t="n">
-        <v>46860</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="7">
@@ -6014,10 +6014,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50931</v>
+        <v>1694</v>
       </c>
       <c r="C7" t="n">
-        <v>48209</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="8">
@@ -6025,10 +6025,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50695</v>
+        <v>1820</v>
       </c>
       <c r="C8" t="n">
-        <v>47730</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="9">
@@ -6036,10 +6036,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>51130</v>
+        <v>1723</v>
       </c>
       <c r="C9" t="n">
-        <v>48732</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="10">
@@ -6047,10 +6047,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>52291</v>
+        <v>1633</v>
       </c>
       <c r="C10" t="n">
-        <v>49107</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="11">
@@ -6058,10 +6058,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52384</v>
+        <v>1692</v>
       </c>
       <c r="C11" t="n">
-        <v>49606</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="12">
@@ -6069,10 +6069,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>51683</v>
+        <v>1708</v>
       </c>
       <c r="C12" t="n">
-        <v>48733</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="13">
@@ -6080,10 +6080,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>52031</v>
+        <v>1728</v>
       </c>
       <c r="C13" t="n">
-        <v>49435</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="14">
@@ -6091,10 +6091,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>51390</v>
+        <v>1614</v>
       </c>
       <c r="C14" t="n">
-        <v>48683</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="15">
@@ -6102,10 +6102,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>51167</v>
+        <v>1606</v>
       </c>
       <c r="C15" t="n">
-        <v>48761</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="16">
@@ -6113,10 +6113,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>51171</v>
+        <v>1561</v>
       </c>
       <c r="C16" t="n">
-        <v>48082</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="17">
@@ -6124,10 +6124,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>49266</v>
+        <v>1482</v>
       </c>
       <c r="C17" t="n">
-        <v>46415</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="18">
@@ -6135,10 +6135,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>48078</v>
+        <v>1462</v>
       </c>
       <c r="C18" t="n">
-        <v>44841</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="19">
@@ -6146,10 +6146,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46821</v>
+        <v>1464</v>
       </c>
       <c r="C19" t="n">
-        <v>43797</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="20">
@@ -6157,10 +6157,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>46225</v>
+        <v>1468</v>
       </c>
       <c r="C20" t="n">
-        <v>43497</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="21">
@@ -6168,10 +6168,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45766</v>
+        <v>1438</v>
       </c>
       <c r="C21" t="n">
-        <v>43203</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="22">
@@ -6179,10 +6179,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>48789</v>
+        <v>1619</v>
       </c>
       <c r="C22" t="n">
-        <v>45315</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="23">
@@ -6190,10 +6190,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>51023</v>
+        <v>1538</v>
       </c>
       <c r="C23" t="n">
-        <v>47724</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="24">
@@ -6201,10 +6201,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50847</v>
+        <v>1646</v>
       </c>
       <c r="C24" t="n">
-        <v>48082</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="25">
@@ -6212,10 +6212,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>51272</v>
+        <v>1755</v>
       </c>
       <c r="C25" t="n">
-        <v>49214</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52878</v>
+        <v>1769</v>
       </c>
       <c r="C26" t="n">
-        <v>51031</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="27">
@@ -6234,10 +6234,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>53863</v>
+        <v>1945</v>
       </c>
       <c r="C27" t="n">
-        <v>52415</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="28">
@@ -6245,10 +6245,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55473</v>
+        <v>2057</v>
       </c>
       <c r="C28" t="n">
-        <v>54677</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="29">
@@ -6256,10 +6256,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55729</v>
+        <v>2054</v>
       </c>
       <c r="C29" t="n">
-        <v>55662</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="30">
@@ -6267,10 +6267,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>56436</v>
+        <v>2111</v>
       </c>
       <c r="C30" t="n">
-        <v>56836</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="31">
@@ -6278,10 +6278,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>56643</v>
+        <v>2090</v>
       </c>
       <c r="C31" t="n">
-        <v>58243</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="32">
@@ -6289,10 +6289,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>57664</v>
+        <v>2261</v>
       </c>
       <c r="C32" t="n">
-        <v>60243</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="33">
@@ -6300,10 +6300,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>58250</v>
+        <v>2212</v>
       </c>
       <c r="C33" t="n">
-        <v>60502</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="34">
@@ -6311,10 +6311,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>57560</v>
+        <v>2120</v>
       </c>
       <c r="C34" t="n">
-        <v>59998</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="35">
@@ -6322,10 +6322,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>56304</v>
+        <v>2062</v>
       </c>
       <c r="C35" t="n">
-        <v>59574</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="36">
@@ -6333,10 +6333,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>56268</v>
+        <v>2013</v>
       </c>
       <c r="C36" t="n">
-        <v>59703</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="37">
@@ -6344,10 +6344,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>57342</v>
+        <v>2095</v>
       </c>
       <c r="C37" t="n">
-        <v>59379</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="38">
@@ -6355,10 +6355,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>57330</v>
+        <v>1844</v>
       </c>
       <c r="C38" t="n">
-        <v>59415</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="39">
@@ -6366,10 +6366,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>57029</v>
+        <v>1961</v>
       </c>
       <c r="C39" t="n">
-        <v>59274</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="40">
@@ -6377,10 +6377,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>57442</v>
+        <v>1881</v>
       </c>
       <c r="C40" t="n">
-        <v>59388</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="41">
@@ -6388,10 +6388,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>56181</v>
+        <v>1724</v>
       </c>
       <c r="C41" t="n">
-        <v>57394</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="42">
@@ -6399,10 +6399,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>55449</v>
+        <v>1890</v>
       </c>
       <c r="C42" t="n">
-        <v>56194</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="43">
@@ -6410,10 +6410,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>52879</v>
+        <v>1596</v>
       </c>
       <c r="C43" t="n">
-        <v>53205</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="44">
@@ -6421,10 +6421,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>51375</v>
+        <v>1670</v>
       </c>
       <c r="C44" t="n">
-        <v>52683</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="45">
@@ -6432,10 +6432,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>49725</v>
+        <v>1438</v>
       </c>
       <c r="C45" t="n">
-        <v>51297</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="46">
@@ -6443,10 +6443,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>49427</v>
+        <v>1562</v>
       </c>
       <c r="C46" t="n">
-        <v>50746</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="47">
@@ -6454,10 +6454,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>49240</v>
+        <v>1539</v>
       </c>
       <c r="C47" t="n">
-        <v>50715</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="48">
@@ -6465,10 +6465,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>49572</v>
+        <v>1488</v>
       </c>
       <c r="C48" t="n">
-        <v>50995</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="49">
@@ -6476,10 +6476,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>50340</v>
+        <v>1485</v>
       </c>
       <c r="C49" t="n">
-        <v>52304</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="50">
@@ -6487,10 +6487,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>51259</v>
+        <v>1527</v>
       </c>
       <c r="C50" t="n">
-        <v>53602</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="51">
@@ -6498,10 +6498,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>53184</v>
+        <v>1551</v>
       </c>
       <c r="C51" t="n">
-        <v>55705</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="52">
@@ -6509,10 +6509,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>53467</v>
+        <v>1710</v>
       </c>
       <c r="C52" t="n">
-        <v>56529</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="53">
@@ -6520,10 +6520,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>49130</v>
+        <v>1551</v>
       </c>
       <c r="C53" t="n">
-        <v>51538</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="54">
@@ -6531,10 +6531,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>48590</v>
+        <v>1468</v>
       </c>
       <c r="C54" t="n">
-        <v>51316</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="55">
@@ -6542,10 +6542,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>46355</v>
+        <v>1336</v>
       </c>
       <c r="C55" t="n">
-        <v>49086</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="56">
@@ -6553,10 +6553,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>46032</v>
+        <v>1388</v>
       </c>
       <c r="C56" t="n">
-        <v>47988</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="57">
@@ -6564,10 +6564,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>46275</v>
+        <v>1390</v>
       </c>
       <c r="C57" t="n">
-        <v>47568</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="58">
@@ -6575,10 +6575,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>46774</v>
+        <v>1335</v>
       </c>
       <c r="C58" t="n">
-        <v>48652</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="59">
@@ -6586,10 +6586,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48499</v>
+        <v>1292</v>
       </c>
       <c r="C59" t="n">
-        <v>50538</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="60">
@@ -6597,10 +6597,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>49468</v>
+        <v>1338</v>
       </c>
       <c r="C60" t="n">
-        <v>51893</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="61">
@@ -6608,10 +6608,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>49327</v>
+        <v>1320</v>
       </c>
       <c r="C61" t="n">
-        <v>51151</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="62">
@@ -6619,10 +6619,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48391</v>
+        <v>1283</v>
       </c>
       <c r="C62" t="n">
-        <v>51116</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="63">
@@ -6630,10 +6630,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>46380</v>
+        <v>1116</v>
       </c>
       <c r="C63" t="n">
-        <v>49385</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="64">
@@ -6641,10 +6641,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>45470</v>
+        <v>1139</v>
       </c>
       <c r="C64" t="n">
-        <v>48118</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="65">
@@ -6652,10 +6652,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>44679</v>
+        <v>1056</v>
       </c>
       <c r="C65" t="n">
-        <v>48075</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="66">
@@ -6663,10 +6663,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>43410</v>
+        <v>1027</v>
       </c>
       <c r="C66" t="n">
-        <v>46599</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="67">
@@ -6674,10 +6674,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>42399</v>
+        <v>1026</v>
       </c>
       <c r="C67" t="n">
-        <v>45257</v>
+        <v>911</v>
       </c>
     </row>
     <row r="68">
@@ -6685,10 +6685,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>41070</v>
+        <v>896</v>
       </c>
       <c r="C68" t="n">
-        <v>44650</v>
+        <v>882</v>
       </c>
     </row>
     <row r="69">
@@ -6696,10 +6696,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>39922</v>
+        <v>891</v>
       </c>
       <c r="C69" t="n">
-        <v>43027</v>
+        <v>831</v>
       </c>
     </row>
     <row r="70">
@@ -6707,10 +6707,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>39532</v>
+        <v>800</v>
       </c>
       <c r="C70" t="n">
-        <v>42452</v>
+        <v>764</v>
       </c>
     </row>
     <row r="71">
@@ -6718,10 +6718,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>37547</v>
+        <v>768</v>
       </c>
       <c r="C71" t="n">
-        <v>40632</v>
+        <v>667</v>
       </c>
     </row>
     <row r="72">
@@ -6729,10 +6729,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>37355</v>
+        <v>713</v>
       </c>
       <c r="C72" t="n">
-        <v>39843</v>
+        <v>714</v>
       </c>
     </row>
     <row r="73">
@@ -6740,10 +6740,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>36511</v>
+        <v>720</v>
       </c>
       <c r="C73" t="n">
-        <v>39008</v>
+        <v>612</v>
       </c>
     </row>
     <row r="74">
@@ -6751,10 +6751,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>35147</v>
+        <v>623</v>
       </c>
       <c r="C74" t="n">
-        <v>37366</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75">
@@ -6762,10 +6762,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>35356</v>
+        <v>565</v>
       </c>
       <c r="C75" t="n">
-        <v>37100</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76">
@@ -6773,10 +6773,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>36179</v>
+        <v>562</v>
       </c>
       <c r="C76" t="n">
-        <v>38381</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77">
@@ -6784,10 +6784,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29770</v>
+        <v>435</v>
       </c>
       <c r="C77" t="n">
-        <v>31784</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78">
@@ -6795,10 +6795,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27795</v>
+        <v>383</v>
       </c>
       <c r="C78" t="n">
-        <v>30299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79">
@@ -6806,10 +6806,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26260</v>
+        <v>327</v>
       </c>
       <c r="C79" t="n">
-        <v>28578</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80">
@@ -6817,10 +6817,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22582</v>
+        <v>307</v>
       </c>
       <c r="C80" t="n">
-        <v>25294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81">
@@ -6828,10 +6828,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21657</v>
+        <v>287</v>
       </c>
       <c r="C81" t="n">
-        <v>24090</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -6875,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37231</v>
+        <v>2719</v>
       </c>
       <c r="C2" t="n">
-        <v>35848</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="3">
@@ -6886,10 +6886,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38213</v>
+        <v>2695</v>
       </c>
       <c r="C3" t="n">
-        <v>36083</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="4">
@@ -6897,10 +6897,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38211</v>
+        <v>2724</v>
       </c>
       <c r="C4" t="n">
-        <v>36662</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="5">
@@ -6908,10 +6908,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39161</v>
+        <v>2683</v>
       </c>
       <c r="C5" t="n">
-        <v>36800</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="6">
@@ -6919,10 +6919,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39870</v>
+        <v>2938</v>
       </c>
       <c r="C6" t="n">
-        <v>37831</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="7">
@@ -6930,10 +6930,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41504</v>
+        <v>3005</v>
       </c>
       <c r="C7" t="n">
-        <v>39100</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="8">
@@ -6941,10 +6941,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40966</v>
+        <v>3066</v>
       </c>
       <c r="C8" t="n">
-        <v>38925</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="9">
@@ -6952,10 +6952,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41368</v>
+        <v>3040</v>
       </c>
       <c r="C9" t="n">
-        <v>38922</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="10">
@@ -6963,10 +6963,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41819</v>
+        <v>2987</v>
       </c>
       <c r="C10" t="n">
-        <v>39472</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="11">
@@ -6974,10 +6974,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>41092</v>
+        <v>2914</v>
       </c>
       <c r="C11" t="n">
-        <v>39004</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="12">
@@ -6985,10 +6985,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40121</v>
+        <v>2907</v>
       </c>
       <c r="C12" t="n">
-        <v>37897</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="13">
@@ -6996,10 +6996,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40503</v>
+        <v>2950</v>
       </c>
       <c r="C13" t="n">
-        <v>38880</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="14">
@@ -7007,10 +7007,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40180</v>
+        <v>2788</v>
       </c>
       <c r="C14" t="n">
-        <v>37738</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="15">
@@ -7018,10 +7018,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40163</v>
+        <v>2671</v>
       </c>
       <c r="C15" t="n">
-        <v>37784</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="16">
@@ -7029,10 +7029,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>40281</v>
+        <v>2701</v>
       </c>
       <c r="C16" t="n">
-        <v>37841</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="17">
@@ -7040,10 +7040,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>38559</v>
+        <v>2666</v>
       </c>
       <c r="C17" t="n">
-        <v>36572</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="18">
@@ -7051,10 +7051,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>37290</v>
+        <v>2456</v>
       </c>
       <c r="C18" t="n">
-        <v>34963</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="19">
@@ -7062,10 +7062,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36998</v>
+        <v>2414</v>
       </c>
       <c r="C19" t="n">
-        <v>34938</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="20">
@@ -7073,10 +7073,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36686</v>
+        <v>2867</v>
       </c>
       <c r="C20" t="n">
-        <v>34815</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="21">
@@ -7084,10 +7084,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>36984</v>
+        <v>3012</v>
       </c>
       <c r="C21" t="n">
-        <v>35402</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="22">
@@ -7095,10 +7095,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39734</v>
+        <v>3199</v>
       </c>
       <c r="C22" t="n">
-        <v>37355</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="23">
@@ -7106,10 +7106,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41299</v>
+        <v>3395</v>
       </c>
       <c r="C23" t="n">
-        <v>39587</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="24">
@@ -7117,10 +7117,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>41702</v>
+        <v>3477</v>
       </c>
       <c r="C24" t="n">
-        <v>39649</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="25">
@@ -7128,10 +7128,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>42677</v>
+        <v>3490</v>
       </c>
       <c r="C25" t="n">
-        <v>40456</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="26">
@@ -7139,10 +7139,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45123</v>
+        <v>3528</v>
       </c>
       <c r="C26" t="n">
-        <v>42757</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="27">
@@ -7150,10 +7150,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>47108</v>
+        <v>3711</v>
       </c>
       <c r="C27" t="n">
-        <v>44374</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="28">
@@ -7161,10 +7161,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48564</v>
+        <v>3977</v>
       </c>
       <c r="C28" t="n">
-        <v>46457</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="29">
@@ -7172,10 +7172,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48385</v>
+        <v>4010</v>
       </c>
       <c r="C29" t="n">
-        <v>47257</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="30">
@@ -7183,10 +7183,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>47893</v>
+        <v>4067</v>
       </c>
       <c r="C30" t="n">
-        <v>48528</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="31">
@@ -7194,10 +7194,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>47538</v>
+        <v>3966</v>
       </c>
       <c r="C31" t="n">
-        <v>49427</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="32">
@@ -7205,10 +7205,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>48813</v>
+        <v>3923</v>
       </c>
       <c r="C32" t="n">
-        <v>50935</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="33">
@@ -7216,10 +7216,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>48879</v>
+        <v>3960</v>
       </c>
       <c r="C33" t="n">
-        <v>52093</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="34">
@@ -7227,10 +7227,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>48483</v>
+        <v>3730</v>
       </c>
       <c r="C34" t="n">
-        <v>51273</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="35">
@@ -7238,10 +7238,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>48537</v>
+        <v>3653</v>
       </c>
       <c r="C35" t="n">
-        <v>51465</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="36">
@@ -7249,10 +7249,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>48800</v>
+        <v>3698</v>
       </c>
       <c r="C36" t="n">
-        <v>50684</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="37">
@@ -7260,10 +7260,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>48780</v>
+        <v>3742</v>
       </c>
       <c r="C37" t="n">
-        <v>51260</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="38">
@@ -7271,10 +7271,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>48663</v>
+        <v>3646</v>
       </c>
       <c r="C38" t="n">
-        <v>51140</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="39">
@@ -7282,10 +7282,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>47957</v>
+        <v>3675</v>
       </c>
       <c r="C39" t="n">
-        <v>49686</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="40">
@@ -7293,10 +7293,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>48259</v>
+        <v>3673</v>
       </c>
       <c r="C40" t="n">
-        <v>49543</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="41">
@@ -7304,10 +7304,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>46621</v>
+        <v>3589</v>
       </c>
       <c r="C41" t="n">
-        <v>48019</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="42">
@@ -7315,10 +7315,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>45618</v>
+        <v>3519</v>
       </c>
       <c r="C42" t="n">
-        <v>46430</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="43">
@@ -7326,10 +7326,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>43276</v>
+        <v>3170</v>
       </c>
       <c r="C43" t="n">
-        <v>44024</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="44">
@@ -7337,10 +7337,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42124</v>
+        <v>3223</v>
       </c>
       <c r="C44" t="n">
-        <v>42919</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="45">
@@ -7348,10 +7348,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>41134</v>
+        <v>3101</v>
       </c>
       <c r="C45" t="n">
-        <v>41736</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="46">
@@ -7359,10 +7359,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40273</v>
+        <v>2994</v>
       </c>
       <c r="C46" t="n">
-        <v>41277</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="47">
@@ -7370,10 +7370,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>40144</v>
+        <v>2893</v>
       </c>
       <c r="C47" t="n">
-        <v>40888</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="48">
@@ -7381,10 +7381,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40130</v>
+        <v>2978</v>
       </c>
       <c r="C48" t="n">
-        <v>41895</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="49">
@@ -7392,10 +7392,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>40279</v>
+        <v>2852</v>
       </c>
       <c r="C49" t="n">
-        <v>42735</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="50">
@@ -7403,10 +7403,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40700</v>
+        <v>2857</v>
       </c>
       <c r="C50" t="n">
-        <v>42750</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="51">
@@ -7414,10 +7414,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>42032</v>
+        <v>2911</v>
       </c>
       <c r="C51" t="n">
-        <v>44969</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="52">
@@ -7425,10 +7425,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>42781</v>
+        <v>3024</v>
       </c>
       <c r="C52" t="n">
-        <v>46336</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="53">
@@ -7436,10 +7436,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40445</v>
+        <v>2751</v>
       </c>
       <c r="C53" t="n">
-        <v>42756</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="54">
@@ -7447,10 +7447,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40080</v>
+        <v>2609</v>
       </c>
       <c r="C54" t="n">
-        <v>42660</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="55">
@@ -7458,10 +7458,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>38648</v>
+        <v>2560</v>
       </c>
       <c r="C55" t="n">
-        <v>40516</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="56">
@@ -7469,10 +7469,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>37073</v>
+        <v>2416</v>
       </c>
       <c r="C56" t="n">
-        <v>39056</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="57">
@@ -7480,10 +7480,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>36877</v>
+        <v>2327</v>
       </c>
       <c r="C57" t="n">
-        <v>38971</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="58">
@@ -7491,10 +7491,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>36930</v>
+        <v>2383</v>
       </c>
       <c r="C58" t="n">
-        <v>38938</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="59">
@@ -7502,10 +7502,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>37286</v>
+        <v>2303</v>
       </c>
       <c r="C59" t="n">
-        <v>39757</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="60">
@@ -7513,10 +7513,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>38024</v>
+        <v>2329</v>
       </c>
       <c r="C60" t="n">
-        <v>40029</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="61">
@@ -7524,10 +7524,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>37519</v>
+        <v>2322</v>
       </c>
       <c r="C61" t="n">
-        <v>39585</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="62">
@@ -7535,10 +7535,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>37033</v>
+        <v>2227</v>
       </c>
       <c r="C62" t="n">
-        <v>39380</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="63">
@@ -7546,10 +7546,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>35397</v>
+        <v>2166</v>
       </c>
       <c r="C63" t="n">
-        <v>38319</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="64">
@@ -7557,10 +7557,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>35258</v>
+        <v>2001</v>
       </c>
       <c r="C64" t="n">
-        <v>37613</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="65">
@@ -7568,10 +7568,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>33920</v>
+        <v>1957</v>
       </c>
       <c r="C65" t="n">
-        <v>36737</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="66">
@@ -7579,10 +7579,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>32988</v>
+        <v>1889</v>
       </c>
       <c r="C66" t="n">
-        <v>35980</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="67">
@@ -7590,10 +7590,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>32873</v>
+        <v>1827</v>
       </c>
       <c r="C67" t="n">
-        <v>35196</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="68">
@@ -7601,10 +7601,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>31542</v>
+        <v>1683</v>
       </c>
       <c r="C68" t="n">
-        <v>34454</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="69">
@@ -7612,10 +7612,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30211</v>
+        <v>1752</v>
       </c>
       <c r="C69" t="n">
-        <v>33230</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="70">
@@ -7623,10 +7623,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29852</v>
+        <v>1755</v>
       </c>
       <c r="C70" t="n">
-        <v>32821</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="71">
@@ -7634,10 +7634,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28921</v>
+        <v>1618</v>
       </c>
       <c r="C71" t="n">
-        <v>31474</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="72">
@@ -7645,10 +7645,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28188</v>
+        <v>1617</v>
       </c>
       <c r="C72" t="n">
-        <v>31043</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="73">
@@ -7656,10 +7656,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27472</v>
+        <v>1620</v>
       </c>
       <c r="C73" t="n">
-        <v>30404</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="74">
@@ -7667,10 +7667,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26292</v>
+        <v>1555</v>
       </c>
       <c r="C74" t="n">
-        <v>29013</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="75">
@@ -7678,10 +7678,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26327</v>
+        <v>1579</v>
       </c>
       <c r="C75" t="n">
-        <v>28921</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="76">
@@ -7689,10 +7689,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27357</v>
+        <v>1630</v>
       </c>
       <c r="C76" t="n">
-        <v>29977</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="77">
@@ -7700,10 +7700,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22577</v>
+        <v>1362</v>
       </c>
       <c r="C77" t="n">
-        <v>24373</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="78">
@@ -7711,10 +7711,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20631</v>
+        <v>1157</v>
       </c>
       <c r="C78" t="n">
-        <v>22900</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="79">
@@ -7722,10 +7722,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19199</v>
+        <v>1069</v>
       </c>
       <c r="C79" t="n">
-        <v>21751</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="80">
@@ -7733,10 +7733,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16852</v>
+        <v>924</v>
       </c>
       <c r="C80" t="n">
-        <v>19316</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="81">
@@ -7744,10 +7744,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16647</v>
+        <v>944</v>
       </c>
       <c r="C81" t="n">
-        <v>18959</v>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1566</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>1492</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -7802,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1758</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>1583</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -7813,10 +7813,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1665</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1572</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -7824,10 +7824,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1716</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>1528</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -7835,10 +7835,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1746</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>1601</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -7846,10 +7846,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1694</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>1668</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -7857,10 +7857,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1820</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>1667</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -7868,10 +7868,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1723</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>1579</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -7879,10 +7879,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1633</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>1662</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -7890,10 +7890,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1692</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>1706</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -7901,10 +7901,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1708</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>1589</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -7912,10 +7912,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1728</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>1560</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -7923,10 +7923,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1614</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
-        <v>1525</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -7934,10 +7934,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1606</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>1479</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -7945,10 +7945,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1561</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>1464</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -7956,10 +7956,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1482</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>1440</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -7967,10 +7967,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1462</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>1363</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -7978,10 +7978,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1464</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>1316</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -7989,10 +7989,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1468</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>1383</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -8000,10 +8000,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1438</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>1356</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -8011,10 +8011,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1619</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>1361</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -8022,10 +8022,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1538</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>1364</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -8033,10 +8033,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1646</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>1470</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -8044,10 +8044,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1755</v>
+        <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>1585</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -8055,10 +8055,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1769</v>
+        <v>32</v>
       </c>
       <c r="C26" t="n">
-        <v>1690</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -8066,10 +8066,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1945</v>
+        <v>23</v>
       </c>
       <c r="C27" t="n">
-        <v>1999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -8077,10 +8077,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2057</v>
+        <v>36</v>
       </c>
       <c r="C28" t="n">
-        <v>2037</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -8088,10 +8088,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2054</v>
+        <v>40</v>
       </c>
       <c r="C29" t="n">
-        <v>2164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -8099,10 +8099,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2111</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>2222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -8110,10 +8110,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2090</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>2248</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -8121,10 +8121,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2261</v>
+        <v>37</v>
       </c>
       <c r="C32" t="n">
-        <v>2456</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -8132,10 +8132,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2212</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>2297</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -8143,10 +8143,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2120</v>
+        <v>22</v>
       </c>
       <c r="C34" t="n">
-        <v>2198</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -8154,10 +8154,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2062</v>
+        <v>52</v>
       </c>
       <c r="C35" t="n">
-        <v>2190</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -8165,10 +8165,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2013</v>
+        <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>2146</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -8176,10 +8176,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2095</v>
+        <v>33</v>
       </c>
       <c r="C37" t="n">
-        <v>2101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -8187,10 +8187,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1844</v>
+        <v>33</v>
       </c>
       <c r="C38" t="n">
-        <v>2143</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -8198,10 +8198,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1961</v>
+        <v>34</v>
       </c>
       <c r="C39" t="n">
-        <v>1983</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -8209,10 +8209,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1881</v>
+        <v>46</v>
       </c>
       <c r="C40" t="n">
-        <v>1890</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -8220,10 +8220,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1724</v>
+        <v>27</v>
       </c>
       <c r="C41" t="n">
-        <v>1786</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -8231,10 +8231,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1890</v>
+        <v>32</v>
       </c>
       <c r="C42" t="n">
-        <v>1887</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -8242,10 +8242,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1596</v>
+        <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>1688</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
@@ -8253,10 +8253,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1670</v>
+        <v>27</v>
       </c>
       <c r="C44" t="n">
-        <v>1640</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -8264,10 +8264,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1438</v>
+        <v>29</v>
       </c>
       <c r="C45" t="n">
-        <v>1617</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -8275,10 +8275,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1562</v>
+        <v>25</v>
       </c>
       <c r="C46" t="n">
-        <v>1432</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -8286,10 +8286,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1539</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>1560</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
@@ -8297,10 +8297,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1488</v>
+        <v>22</v>
       </c>
       <c r="C48" t="n">
-        <v>1395</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
@@ -8308,10 +8308,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1485</v>
+        <v>39</v>
       </c>
       <c r="C49" t="n">
-        <v>1488</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -8319,10 +8319,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1527</v>
+        <v>37</v>
       </c>
       <c r="C50" t="n">
-        <v>1514</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -8330,10 +8330,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1551</v>
+        <v>38</v>
       </c>
       <c r="C51" t="n">
-        <v>1503</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
@@ -8341,10 +8341,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1710</v>
+        <v>42</v>
       </c>
       <c r="C52" t="n">
-        <v>1672</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
@@ -8352,10 +8352,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1551</v>
+        <v>44</v>
       </c>
       <c r="C53" t="n">
-        <v>1523</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
@@ -8363,10 +8363,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1468</v>
+        <v>37</v>
       </c>
       <c r="C54" t="n">
-        <v>1471</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
@@ -8374,10 +8374,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1336</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
-        <v>1447</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -8385,10 +8385,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1388</v>
+        <v>34</v>
       </c>
       <c r="C56" t="n">
-        <v>1352</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -8396,10 +8396,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1390</v>
+        <v>39</v>
       </c>
       <c r="C57" t="n">
-        <v>1358</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58">
@@ -8407,10 +8407,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1335</v>
+        <v>35</v>
       </c>
       <c r="C58" t="n">
-        <v>1265</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -8418,10 +8418,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1292</v>
+        <v>36</v>
       </c>
       <c r="C59" t="n">
-        <v>1263</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
@@ -8429,10 +8429,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1338</v>
+        <v>42</v>
       </c>
       <c r="C60" t="n">
-        <v>1293</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
@@ -8440,10 +8440,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1320</v>
+        <v>43</v>
       </c>
       <c r="C61" t="n">
-        <v>1233</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62">
@@ -8451,10 +8451,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1283</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>1286</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
@@ -8462,10 +8462,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1116</v>
+        <v>45</v>
       </c>
       <c r="C63" t="n">
-        <v>1122</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
@@ -8473,10 +8473,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1139</v>
+        <v>42</v>
       </c>
       <c r="C64" t="n">
-        <v>1088</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -8484,10 +8484,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1056</v>
+        <v>43</v>
       </c>
       <c r="C65" t="n">
-        <v>1024</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -8495,10 +8495,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1027</v>
+        <v>34</v>
       </c>
       <c r="C66" t="n">
-        <v>1009</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
@@ -8506,10 +8506,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1026</v>
+        <v>38</v>
       </c>
       <c r="C67" t="n">
-        <v>911</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
@@ -8517,10 +8517,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>896</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
-        <v>882</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69">
@@ -8528,10 +8528,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>891</v>
+        <v>29</v>
       </c>
       <c r="C69" t="n">
-        <v>831</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -8539,10 +8539,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="C70" t="n">
-        <v>764</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -8550,10 +8550,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>768</v>
+        <v>29</v>
       </c>
       <c r="C71" t="n">
-        <v>667</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
@@ -8561,10 +8561,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>713</v>
+        <v>48</v>
       </c>
       <c r="C72" t="n">
-        <v>714</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -8572,10 +8572,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>720</v>
+        <v>42</v>
       </c>
       <c r="C73" t="n">
-        <v>612</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -8583,10 +8583,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>623</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
-        <v>528</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
@@ -8594,10 +8594,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>565</v>
+        <v>22</v>
       </c>
       <c r="C75" t="n">
-        <v>513</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -8605,10 +8605,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>562</v>
+        <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>501</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -8616,10 +8616,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="C77" t="n">
-        <v>398</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -8627,10 +8627,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="C78" t="n">
-        <v>329</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
@@ -8638,10 +8638,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>308</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -8649,10 +8649,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="C80" t="n">
-        <v>258</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -8660,10 +8660,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>287</v>
+        <v>7</v>
       </c>
       <c r="C81" t="n">
-        <v>253</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
